--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -556,17 +556,13 @@
         <v>77.20166666666655</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>77</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -601,14 +597,8 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>77</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -642,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>77</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -677,13 +661,17 @@
         <v>77.18499999999989</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>77</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -718,8 +706,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>77</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -753,8 +747,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>77</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -788,8 +788,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>77</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -823,8 +829,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>77</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -852,18 +864,20 @@
         <v>77.08666666666655</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>76.3</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -891,20 +905,18 @@
         <v>77.07666666666655</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>76.3</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -943,11 +955,11 @@
         <v>76.3</v>
       </c>
       <c r="K15" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -986,9 +998,13 @@
         <v>76.3</v>
       </c>
       <c r="K16" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1016,20 +1032,18 @@
         <v>77.00166666666657</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>76.5</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1059,20 +1073,18 @@
         <v>76.98333333333325</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>77.09999999999999</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1102,18 +1114,20 @@
         <v>76.96999999999993</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>77.09999999999999</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1141,20 +1155,18 @@
         <v>76.9516666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>77.3</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1191,11 +1203,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1231,8 +1243,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>77</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1266,8 +1284,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>77</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1301,8 +1325,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>77</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1336,8 +1366,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>77</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1371,8 +1407,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>77</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1406,8 +1448,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>77</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1441,8 +1489,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>77</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1476,8 +1530,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>77</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1511,10 +1571,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>77</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>1.004090909090909</v>
       </c>
     </row>
     <row r="31">
@@ -4620,13 +4686,17 @@
         <v>77.54500000000003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>77.5</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
@@ -4661,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4696,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C2" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D2" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E2" t="n">
-        <v>76.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F2" t="n">
-        <v>16649.1209</v>
+        <v>118.0571</v>
       </c>
       <c r="G2" t="n">
-        <v>77.22999999999989</v>
+        <v>77.24999999999991</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>76.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>12500</v>
+        <v>16649.1209</v>
       </c>
       <c r="G3" t="n">
-        <v>77.20999999999988</v>
+        <v>77.22999999999989</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>77</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>12110</v>
+        <v>12500</v>
       </c>
       <c r="G4" t="n">
-        <v>77.20333333333322</v>
+        <v>77.20999999999988</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>77</v>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>12110</v>
       </c>
       <c r="G5" t="n">
-        <v>77.20166666666655</v>
+        <v>77.20333333333322</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="n">
-        <v>77.19833333333322</v>
+        <v>77.20166666666655</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>77</v>
       </c>
       <c r="F7" t="n">
-        <v>88.5064</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>77.18833333333322</v>
+        <v>77.19833333333322</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,35 +643,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F8" t="n">
-        <v>88.8526</v>
+        <v>88.5064</v>
       </c>
       <c r="G8" t="n">
-        <v>77.18499999999989</v>
+        <v>77.18833333333322</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>77</v>
-      </c>
-      <c r="K8" t="n">
-        <v>77</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -682,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C9" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D9" t="n">
-        <v>76.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E9" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F9" t="n">
-        <v>10340</v>
+        <v>88.8526</v>
       </c>
       <c r="G9" t="n">
-        <v>77.17833333333321</v>
+        <v>77.18499999999989</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -706,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>77</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -723,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>76.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1945.893089960887</v>
+        <v>10340</v>
       </c>
       <c r="G10" t="n">
-        <v>77.16999999999987</v>
+        <v>77.17833333333321</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -747,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>77</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -764,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C11" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="D11" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E11" t="n">
-        <v>76.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F11" t="n">
-        <v>397.6679</v>
+        <v>1945.893089960887</v>
       </c>
       <c r="G11" t="n">
-        <v>77.15666666666654</v>
+        <v>77.16999999999987</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -788,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>77</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -805,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>76.3</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>5914.3407</v>
+        <v>397.6679</v>
       </c>
       <c r="G12" t="n">
-        <v>77.14166666666655</v>
+        <v>77.15666666666654</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -829,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>77</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -858,10 +830,10 @@
         <v>76.3</v>
       </c>
       <c r="F13" t="n">
-        <v>5113.4288</v>
+        <v>5914.3407</v>
       </c>
       <c r="G13" t="n">
-        <v>77.08666666666655</v>
+        <v>77.14166666666655</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>77</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -899,10 +865,10 @@
         <v>76.3</v>
       </c>
       <c r="F14" t="n">
-        <v>454.6106</v>
+        <v>5113.4288</v>
       </c>
       <c r="G14" t="n">
-        <v>77.07666666666655</v>
+        <v>77.08666666666655</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -911,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>77</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -940,28 +900,20 @@
         <v>76.3</v>
       </c>
       <c r="F15" t="n">
-        <v>1620.4799</v>
+        <v>454.6106</v>
       </c>
       <c r="G15" t="n">
-        <v>77.06166666666655</v>
+        <v>77.07666666666655</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>77</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -983,28 +935,20 @@
         <v>76.3</v>
       </c>
       <c r="F16" t="n">
-        <v>507.3753</v>
+        <v>1620.4799</v>
       </c>
       <c r="G16" t="n">
-        <v>77.0349999999999</v>
+        <v>77.06166666666655</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>77</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="C17" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="D17" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="E17" t="n">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="F17" t="n">
-        <v>7184.7085</v>
+        <v>507.3753</v>
       </c>
       <c r="G17" t="n">
-        <v>77.00166666666657</v>
+        <v>77.0349999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1038,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>77</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1055,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="F18" t="n">
-        <v>2388.9999</v>
+        <v>7184.7085</v>
       </c>
       <c r="G18" t="n">
-        <v>76.98333333333325</v>
+        <v>77.00166666666657</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1079,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>77</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1108,10 +1040,10 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>38.9105</v>
+        <v>2388.9999</v>
       </c>
       <c r="G19" t="n">
-        <v>76.96999999999993</v>
+        <v>76.98333333333325</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1120,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>77</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1137,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>815</v>
+        <v>38.9105</v>
       </c>
       <c r="G20" t="n">
-        <v>76.9516666666666</v>
+        <v>76.96999999999993</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1161,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>77</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1190,10 +1110,10 @@
         <v>77.3</v>
       </c>
       <c r="F21" t="n">
-        <v>6223.855</v>
+        <v>815</v>
       </c>
       <c r="G21" t="n">
-        <v>76.93333333333327</v>
+        <v>76.9516666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1202,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>77</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1219,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C22" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D22" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E22" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F22" t="n">
-        <v>1051.8669</v>
+        <v>6223.855</v>
       </c>
       <c r="G22" t="n">
-        <v>76.9166666666666</v>
+        <v>76.93333333333327</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1243,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>77</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1272,10 +1180,10 @@
         <v>77.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>1051.8669</v>
       </c>
       <c r="G23" t="n">
-        <v>76.90666666666661</v>
+        <v>76.9166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1284,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>77</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1301,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>129.1989</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="n">
-        <v>76.8966666666666</v>
+        <v>76.90666666666661</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1325,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>77</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1342,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>4333.4349</v>
+        <v>129.1989</v>
       </c>
       <c r="G25" t="n">
-        <v>76.88166666666662</v>
+        <v>76.8966666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1366,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>77</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1383,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="C26" t="n">
         <v>77.5</v>
@@ -1392,13 +1282,13 @@
         <v>77.5</v>
       </c>
       <c r="E26" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F26" t="n">
-        <v>12.9366</v>
+        <v>4333.4349</v>
       </c>
       <c r="G26" t="n">
-        <v>76.86666666666662</v>
+        <v>76.88166666666662</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1407,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>77</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1436,10 +1320,10 @@
         <v>77.5</v>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>12.9366</v>
       </c>
       <c r="G27" t="n">
-        <v>76.86333333333329</v>
+        <v>76.86666666666662</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1448,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>77</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1465,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C28" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D28" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E28" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F28" t="n">
-        <v>4938.3762</v>
+        <v>3000</v>
       </c>
       <c r="G28" t="n">
-        <v>76.8533333333333</v>
+        <v>76.86333333333329</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1489,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>77</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1506,38 +1378,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>10404.3477</v>
+        <v>4938.3762</v>
       </c>
       <c r="G29" t="n">
-        <v>76.84666666666662</v>
+        <v>76.8533333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>77</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1547,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="C30" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="D30" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="E30" t="n">
-        <v>77.7</v>
+        <v>77.2</v>
       </c>
       <c r="F30" t="n">
-        <v>1014.9999</v>
+        <v>10404.3477</v>
       </c>
       <c r="G30" t="n">
-        <v>76.84833333333329</v>
+        <v>76.84666666666662</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1571,16 +1437,10 @@
         <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>77</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>1.004090909090909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1588,28 +1448,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C31" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D31" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E31" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F31" t="n">
-        <v>14000.0744</v>
+        <v>1014.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>76.85166666666663</v>
+        <v>76.84833333333329</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1623,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>48890.6855</v>
+        <v>14000.0744</v>
       </c>
       <c r="G32" t="n">
-        <v>76.85999999999996</v>
+        <v>76.85166666666663</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1658,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C33" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E33" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>41787.3711</v>
+        <v>48890.6855</v>
       </c>
       <c r="G33" t="n">
-        <v>76.86666666666663</v>
+        <v>76.85999999999996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1693,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>12.9042</v>
+        <v>41787.3711</v>
       </c>
       <c r="G34" t="n">
-        <v>76.87333333333329</v>
+        <v>76.86666666666663</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1728,28 +1588,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C35" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D35" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E35" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F35" t="n">
-        <v>39174.1367</v>
+        <v>12.9042</v>
       </c>
       <c r="G35" t="n">
-        <v>76.8833333333333</v>
+        <v>76.87333333333329</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1763,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>39174.1367</v>
       </c>
       <c r="G36" t="n">
-        <v>76.90333333333329</v>
+        <v>76.8833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1798,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C37" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F37" t="n">
-        <v>12.87</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>76.91499999999996</v>
+        <v>76.90333333333329</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1833,28 +1693,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C38" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D38" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E38" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F38" t="n">
-        <v>3059.2086</v>
+        <v>12.87</v>
       </c>
       <c r="G38" t="n">
-        <v>76.92166666666664</v>
+        <v>76.91499999999996</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1868,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>5148.005148005148</v>
+        <v>3059.2086</v>
       </c>
       <c r="G39" t="n">
-        <v>76.93499999999997</v>
+        <v>76.92166666666664</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1903,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C40" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D40" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E40" t="n">
-        <v>77.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F40" t="n">
-        <v>4665.7328</v>
+        <v>5148.005148005148</v>
       </c>
       <c r="G40" t="n">
-        <v>76.93999999999998</v>
+        <v>76.93499999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1941,19 +1801,19 @@
         <v>77.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D41" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>65362.806</v>
+        <v>4665.7328</v>
       </c>
       <c r="G41" t="n">
-        <v>76.94499999999998</v>
+        <v>76.93999999999998</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1973,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C42" t="n">
         <v>77</v>
       </c>
       <c r="D42" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E42" t="n">
         <v>77</v>
       </c>
       <c r="F42" t="n">
-        <v>1253.5349</v>
+        <v>65362.806</v>
       </c>
       <c r="G42" t="n">
-        <v>76.95333333333332</v>
+        <v>76.94499999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2020,10 +1880,10 @@
         <v>77</v>
       </c>
       <c r="F43" t="n">
-        <v>6393.8078</v>
+        <v>1253.5349</v>
       </c>
       <c r="G43" t="n">
-        <v>76.96333333333332</v>
+        <v>76.95333333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2055,10 +1915,10 @@
         <v>77</v>
       </c>
       <c r="F44" t="n">
-        <v>599.8528</v>
+        <v>6393.8078</v>
       </c>
       <c r="G44" t="n">
-        <v>76.97166666666665</v>
+        <v>76.96333333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2090,10 +1950,10 @@
         <v>77</v>
       </c>
       <c r="F45" t="n">
-        <v>1210.2581</v>
+        <v>599.8528</v>
       </c>
       <c r="G45" t="n">
-        <v>76.97999999999999</v>
+        <v>76.97166666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2125,10 +1985,10 @@
         <v>77</v>
       </c>
       <c r="F46" t="n">
-        <v>13142</v>
+        <v>1210.2581</v>
       </c>
       <c r="G46" t="n">
-        <v>76.98166666666665</v>
+        <v>76.97999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2160,10 +2020,10 @@
         <v>77</v>
       </c>
       <c r="F47" t="n">
-        <v>16473</v>
+        <v>13142</v>
       </c>
       <c r="G47" t="n">
-        <v>76.98666666666666</v>
+        <v>76.98166666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2195,10 +2055,10 @@
         <v>77</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>16473</v>
       </c>
       <c r="G48" t="n">
-        <v>76.99333333333333</v>
+        <v>76.98666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2230,10 +2090,10 @@
         <v>77</v>
       </c>
       <c r="F49" t="n">
-        <v>43380.9456</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>76.99999999999999</v>
+        <v>76.99333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2265,10 +2125,10 @@
         <v>77</v>
       </c>
       <c r="F50" t="n">
-        <v>6088.474</v>
+        <v>43380.9456</v>
       </c>
       <c r="G50" t="n">
-        <v>77.00833333333331</v>
+        <v>76.99999999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2288,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C51" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="D51" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E51" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>6088.474</v>
       </c>
       <c r="G51" t="n">
-        <v>77.01333333333331</v>
+        <v>77.00833333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2326,19 +2186,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D52" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="n">
-        <v>77.01666666666664</v>
+        <v>77.01333333333331</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2358,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C53" t="n">
         <v>76.8</v>
       </c>
       <c r="D53" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E53" t="n">
         <v>76.8</v>
       </c>
       <c r="F53" t="n">
-        <v>3521.7</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="n">
-        <v>77.01499999999997</v>
+        <v>77.01666666666664</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2393,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="C54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="D54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="E54" t="n">
-        <v>77.2</v>
+        <v>76.8</v>
       </c>
       <c r="F54" t="n">
-        <v>543.4585</v>
+        <v>3521.7</v>
       </c>
       <c r="G54" t="n">
-        <v>77.01999999999998</v>
+        <v>77.01499999999997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2428,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="C55" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="D55" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="E55" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="F55" t="n">
-        <v>5149.3919</v>
+        <v>543.4585</v>
       </c>
       <c r="G55" t="n">
-        <v>77.02666666666666</v>
+        <v>77.01999999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2463,31 +2323,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C56" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D56" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E56" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F56" t="n">
-        <v>238.566</v>
+        <v>5149.3919</v>
       </c>
       <c r="G56" t="n">
         <v>77.02666666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>77.2</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2501,19 +2365,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D57" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>35505.0817</v>
+        <v>238.566</v>
       </c>
       <c r="G57" t="n">
-        <v>77.02500000000001</v>
+        <v>77.02666666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2522,8 +2386,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2533,32 +2403,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="D58" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>35505.0817</v>
       </c>
       <c r="G58" t="n">
-        <v>77.02666666666667</v>
+        <v>77.02500000000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="K58" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2568,32 +2446,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C59" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="D59" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="E59" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F59" t="n">
-        <v>10010</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>77.04666666666667</v>
+        <v>77.02666666666667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2489,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D60" t="n">
-        <v>78.2</v>
+        <v>77.7</v>
       </c>
       <c r="E60" t="n">
-        <v>77.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>39336.6646</v>
+        <v>10010</v>
       </c>
       <c r="G60" t="n">
-        <v>77.07166666666667</v>
+        <v>77.04666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2627,8 +2513,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2533,19 @@
         <v>77.8</v>
       </c>
       <c r="C61" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D61" t="n">
-        <v>78.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E61" t="n">
         <v>77.8</v>
       </c>
       <c r="F61" t="n">
-        <v>1630</v>
+        <v>39336.6646</v>
       </c>
       <c r="G61" t="n">
-        <v>77.10166666666667</v>
+        <v>77.07166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2662,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2571,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C62" t="n">
         <v>78.09999999999999</v>
-      </c>
-      <c r="C62" t="n">
-        <v>77.5</v>
       </c>
       <c r="D62" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="F62" t="n">
-        <v>16870</v>
+        <v>1630</v>
       </c>
       <c r="G62" t="n">
-        <v>77.12000000000002</v>
+        <v>77.10166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2697,8 +2595,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2612,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D63" t="n">
-        <v>77.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F63" t="n">
-        <v>2090</v>
+        <v>16870</v>
       </c>
       <c r="G63" t="n">
-        <v>77.13666666666668</v>
+        <v>77.12000000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2732,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2653,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>44.8875</v>
+        <v>2090</v>
       </c>
       <c r="G64" t="n">
-        <v>77.14166666666668</v>
+        <v>77.13666666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2767,8 +2677,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2694,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C65" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D65" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E65" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F65" t="n">
-        <v>8249.116400000001</v>
+        <v>44.8875</v>
       </c>
       <c r="G65" t="n">
-        <v>77.14833333333334</v>
+        <v>77.14166666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2802,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +2735,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C66" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E66" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>8249.116400000001</v>
       </c>
       <c r="G66" t="n">
-        <v>77.155</v>
+        <v>77.14833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2837,8 +2759,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2851,19 +2779,19 @@
         <v>77.5</v>
       </c>
       <c r="C67" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D67" t="n">
         <v>77.5</v>
       </c>
       <c r="E67" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>395.4461</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="n">
-        <v>77.16333333333334</v>
+        <v>77.155</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2872,8 +2800,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2886,29 +2820,37 @@
         <v>77.5</v>
       </c>
       <c r="C68" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D68" t="n">
         <v>77.5</v>
       </c>
       <c r="E68" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F68" t="n">
-        <v>10000</v>
+        <v>395.4461</v>
       </c>
       <c r="G68" t="n">
-        <v>77.17333333333335</v>
+        <v>77.16333333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="K68" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2930,20 +2872,28 @@
         <v>77.3</v>
       </c>
       <c r="F69" t="n">
-        <v>11649.3073</v>
+        <v>10000</v>
       </c>
       <c r="G69" t="n">
-        <v>77.18833333333335</v>
+        <v>77.17333333333335</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +2903,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="C70" t="n">
         <v>77.3</v>
       </c>
       <c r="D70" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="E70" t="n">
         <v>77.3</v>
       </c>
       <c r="F70" t="n">
-        <v>2630</v>
+        <v>11649.3073</v>
       </c>
       <c r="G70" t="n">
-        <v>77.19833333333335</v>
+        <v>77.18833333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2977,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +2944,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="C71" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="D71" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="E71" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F71" t="n">
-        <v>3450</v>
+        <v>2630</v>
       </c>
       <c r="G71" t="n">
-        <v>77.2166666666667</v>
+        <v>77.19833333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3012,8 +2968,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +2985,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="C72" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="D72" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="E72" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="F72" t="n">
-        <v>862.5</v>
+        <v>3450</v>
       </c>
       <c r="G72" t="n">
-        <v>77.2416666666667</v>
+        <v>77.2166666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3047,8 +3009,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3026,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C73" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="D73" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="E73" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F73" t="n">
-        <v>600</v>
+        <v>862.5</v>
       </c>
       <c r="G73" t="n">
-        <v>77.26500000000003</v>
+        <v>77.2416666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3082,8 +3050,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3067,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="C74" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="D74" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="E74" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="F74" t="n">
-        <v>43468.208</v>
+        <v>600</v>
       </c>
       <c r="G74" t="n">
-        <v>77.28500000000003</v>
+        <v>77.26500000000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3117,8 +3091,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3108,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C75" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D75" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E75" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1615.518</v>
+        <v>43468.208</v>
       </c>
       <c r="G75" t="n">
-        <v>77.30666666666669</v>
+        <v>77.28500000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3152,8 +3132,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3175,10 +3161,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>389.4155</v>
+        <v>1615.518</v>
       </c>
       <c r="G76" t="n">
-        <v>77.32833333333336</v>
+        <v>77.30666666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3187,8 +3173,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3202,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>6739.9999</v>
+        <v>389.4155</v>
       </c>
       <c r="G77" t="n">
-        <v>77.34666666666671</v>
+        <v>77.32833333333336</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3222,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3231,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>77.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>2529.4939</v>
+        <v>6739.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>77.35833333333336</v>
+        <v>77.34666666666671</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3257,8 +3255,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="C79" t="n">
         <v>77.8</v>
@@ -3277,13 +3281,13 @@
         <v>77.8</v>
       </c>
       <c r="E79" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="F79" t="n">
-        <v>233.5218</v>
+        <v>2529.4939</v>
       </c>
       <c r="G79" t="n">
-        <v>77.37000000000003</v>
+        <v>77.35833333333336</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3292,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3313,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C80" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D80" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="E80" t="n">
-        <v>77.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F80" t="n">
-        <v>10000</v>
+        <v>233.5218</v>
       </c>
       <c r="G80" t="n">
-        <v>77.37500000000003</v>
+        <v>77.37000000000003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3327,8 +3337,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3354,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C81" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E81" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>15937.1289</v>
+        <v>10000</v>
       </c>
       <c r="G81" t="n">
-        <v>77.38000000000004</v>
+        <v>77.37500000000003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3362,8 +3378,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3395,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>15937.1289</v>
       </c>
       <c r="G82" t="n">
-        <v>77.3866666666667</v>
+        <v>77.38000000000004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3397,8 +3419,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3436,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="C83" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="D83" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="E83" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="F83" t="n">
-        <v>2564.720819230769</v>
+        <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>77.40166666666669</v>
+        <v>77.3866666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3432,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3477,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="C84" t="n">
         <v>78</v>
@@ -3452,13 +3486,13 @@
         <v>78</v>
       </c>
       <c r="E84" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="F84" t="n">
-        <v>264.7564</v>
+        <v>2564.720819230769</v>
       </c>
       <c r="G84" t="n">
-        <v>77.41166666666669</v>
+        <v>77.40166666666669</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3467,8 +3501,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3518,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C85" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="D85" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="E85" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="F85" t="n">
-        <v>106</v>
+        <v>264.7564</v>
       </c>
       <c r="G85" t="n">
-        <v>77.41833333333335</v>
+        <v>77.41166666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3502,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3525,10 +3571,10 @@
         <v>77.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>476.0794</v>
+        <v>106</v>
       </c>
       <c r="G86" t="n">
-        <v>77.42500000000001</v>
+        <v>77.41833333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3537,8 +3583,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3551,19 +3603,19 @@
         <v>77.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D87" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>472.5392</v>
+        <v>476.0794</v>
       </c>
       <c r="G87" t="n">
-        <v>77.43000000000002</v>
+        <v>77.42500000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3572,8 +3624,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3641,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>77.8</v>
       </c>
       <c r="D88" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E88" t="n">
         <v>77.8</v>
       </c>
       <c r="F88" t="n">
-        <v>313.0605</v>
+        <v>472.5392</v>
       </c>
       <c r="G88" t="n">
-        <v>77.43333333333335</v>
+        <v>77.43000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3607,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +3694,10 @@
         <v>77.8</v>
       </c>
       <c r="F89" t="n">
-        <v>311.4971</v>
+        <v>313.0605</v>
       </c>
       <c r="G89" t="n">
-        <v>77.44333333333336</v>
+        <v>77.43333333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3642,8 +3706,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3665,10 +3735,10 @@
         <v>77.8</v>
       </c>
       <c r="F90" t="n">
-        <v>155.4891</v>
+        <v>311.4971</v>
       </c>
       <c r="G90" t="n">
-        <v>77.44500000000002</v>
+        <v>77.44333333333336</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3677,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3764,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C91" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="D91" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="E91" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F91" t="n">
-        <v>443.9696</v>
+        <v>155.4891</v>
       </c>
       <c r="G91" t="n">
-        <v>77.45000000000002</v>
+        <v>77.44500000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3712,8 +3788,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +3817,10 @@
         <v>77.90000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>310.2651</v>
+        <v>443.9696</v>
       </c>
       <c r="G92" t="n">
-        <v>77.455</v>
+        <v>77.45000000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3747,8 +3829,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3758,19 +3846,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>309.4895</v>
+        <v>310.2651</v>
       </c>
       <c r="G93" t="n">
         <v>77.455</v>
@@ -3782,8 +3870,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3793,22 +3887,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>30</v>
+        <v>309.4895</v>
       </c>
       <c r="G94" t="n">
-        <v>77.46333333333334</v>
+        <v>77.455</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3817,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3828,7 +3928,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="C95" t="n">
         <v>78</v>
@@ -3837,13 +3937,13 @@
         <v>78</v>
       </c>
       <c r="E95" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="F95" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G95" t="n">
-        <v>77.47</v>
+        <v>77.46333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3852,8 +3952,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3866,19 +3972,19 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="D96" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="E96" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>28370</v>
+        <v>34</v>
       </c>
       <c r="G96" t="n">
-        <v>77.465</v>
+        <v>77.47</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3887,8 +3993,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4013,19 @@
         <v>77.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D97" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>59976.79</v>
+        <v>28370</v>
       </c>
       <c r="G97" t="n">
-        <v>77.46166666666667</v>
+        <v>77.465</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3922,8 +4034,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4051,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="D98" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="F98" t="n">
-        <v>295</v>
+        <v>59976.79</v>
       </c>
       <c r="G98" t="n">
-        <v>77.46333333333334</v>
+        <v>77.46166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3957,8 +4075,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3968,22 +4092,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C99" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D99" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E99" t="n">
-        <v>77.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F99" t="n">
-        <v>3430</v>
+        <v>295</v>
       </c>
       <c r="G99" t="n">
-        <v>77.46666666666667</v>
+        <v>77.46333333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3992,8 +4116,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4006,19 +4136,19 @@
         <v>77.90000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>77.90000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>11120</v>
+        <v>3430</v>
       </c>
       <c r="G100" t="n">
-        <v>77.48166666666665</v>
+        <v>77.46666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4027,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4038,7 +4174,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C101" t="n">
         <v>78</v>
@@ -4047,13 +4183,13 @@
         <v>78</v>
       </c>
       <c r="E101" t="n">
-        <v>78</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>5000</v>
+        <v>11120</v>
       </c>
       <c r="G101" t="n">
-        <v>77.49833333333332</v>
+        <v>77.48166666666665</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4062,8 +4198,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4076,19 +4218,19 @@
         <v>78</v>
       </c>
       <c r="C102" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="D102" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E102" t="n">
         <v>78</v>
       </c>
       <c r="F102" t="n">
-        <v>6638.0033</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>77.51666666666667</v>
+        <v>77.49833333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4097,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4111,19 +4259,19 @@
         <v>78</v>
       </c>
       <c r="C103" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E103" t="n">
         <v>78</v>
       </c>
       <c r="F103" t="n">
-        <v>585.0897</v>
+        <v>6638.0033</v>
       </c>
       <c r="G103" t="n">
-        <v>77.53333333333333</v>
+        <v>77.51666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4132,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4297,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="C104" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="D104" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="E104" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="F104" t="n">
-        <v>14000</v>
+        <v>585.0897</v>
       </c>
       <c r="G104" t="n">
-        <v>77.54166666666667</v>
+        <v>77.53333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4167,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4338,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C105" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D105" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E105" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F105" t="n">
-        <v>348.6403</v>
+        <v>14000</v>
       </c>
       <c r="G105" t="n">
-        <v>77.54666666666667</v>
+        <v>77.54166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4202,8 +4362,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4213,19 +4379,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="D106" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="F106" t="n">
-        <v>15110.9999</v>
+        <v>348.6403</v>
       </c>
       <c r="G106" t="n">
         <v>77.54666666666667</v>
@@ -4237,8 +4403,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4260,7 +4432,7 @@
         <v>77</v>
       </c>
       <c r="F107" t="n">
-        <v>17499</v>
+        <v>15110.9999</v>
       </c>
       <c r="G107" t="n">
         <v>77.54666666666667</v>
@@ -4272,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4295,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="F108" t="n">
-        <v>622.3251</v>
+        <v>17499</v>
       </c>
       <c r="G108" t="n">
         <v>77.54666666666667</v>
@@ -4307,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4330,7 +4514,7 @@
         <v>77</v>
       </c>
       <c r="F109" t="n">
-        <v>1840</v>
+        <v>622.3251</v>
       </c>
       <c r="G109" t="n">
         <v>77.54666666666667</v>
@@ -4342,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4353,22 +4543,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="C110" t="n">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D110" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="E110" t="n">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F110" t="n">
-        <v>30458.5006</v>
+        <v>1840</v>
       </c>
       <c r="G110" t="n">
-        <v>77.54000000000001</v>
+        <v>77.54666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4377,8 +4567,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4584,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>77.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>77.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>8497.6427</v>
+        <v>30458.5006</v>
       </c>
       <c r="G111" t="n">
-        <v>77.54500000000002</v>
+        <v>77.54000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4412,8 +4608,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4423,19 +4625,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="C112" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="D112" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="E112" t="n">
-        <v>76.8</v>
+        <v>77.2</v>
       </c>
       <c r="F112" t="n">
-        <v>1151.472</v>
+        <v>8497.6427</v>
       </c>
       <c r="G112" t="n">
         <v>77.54500000000002</v>
@@ -4447,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4470,7 +4678,7 @@
         <v>76.8</v>
       </c>
       <c r="F113" t="n">
-        <v>10229.8132</v>
+        <v>1151.472</v>
       </c>
       <c r="G113" t="n">
         <v>77.54500000000002</v>
@@ -4482,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4493,22 +4707,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="C114" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D114" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="E114" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F114" t="n">
-        <v>3300.5924</v>
+        <v>10229.8132</v>
       </c>
       <c r="G114" t="n">
-        <v>77.53666666666668</v>
+        <v>77.54500000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4517,8 +4731,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4528,22 +4748,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C115" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D115" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E115" t="n">
-        <v>77.09999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2240</v>
+        <v>3300.5924</v>
       </c>
       <c r="G115" t="n">
-        <v>77.53333333333335</v>
+        <v>77.53666666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4552,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4789,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>5692.8504</v>
+        <v>2240</v>
       </c>
       <c r="G116" t="n">
-        <v>77.53166666666669</v>
+        <v>77.53333333333335</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4587,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4830,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="C117" t="n">
-        <v>77.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D117" t="n">
-        <v>77.59999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="E117" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="F117" t="n">
-        <v>5920</v>
+        <v>5692.8504</v>
       </c>
       <c r="G117" t="n">
-        <v>77.54500000000003</v>
+        <v>77.53166666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4622,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4636,16 +4874,16 @@
         <v>77.5</v>
       </c>
       <c r="C118" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E118" t="n">
         <v>77.5</v>
       </c>
       <c r="F118" t="n">
-        <v>415.9999</v>
+        <v>5920</v>
       </c>
       <c r="G118" t="n">
         <v>77.54500000000003</v>
@@ -4657,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4668,36 +4912,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="C119" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="D119" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="E119" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="F119" t="n">
-        <v>12210</v>
+        <v>415.9999</v>
       </c>
       <c r="G119" t="n">
         <v>77.54500000000003</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>77.5</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
+        <v>77.2</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4719,10 +4965,10 @@
         <v>77.7</v>
       </c>
       <c r="F120" t="n">
-        <v>596</v>
+        <v>12210</v>
       </c>
       <c r="G120" t="n">
-        <v>77.54333333333335</v>
+        <v>77.54500000000003</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4732,11 +4978,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4760,10 +5006,10 @@
         <v>77.7</v>
       </c>
       <c r="F121" t="n">
-        <v>10751.1273</v>
+        <v>596</v>
       </c>
       <c r="G121" t="n">
-        <v>77.53666666666668</v>
+        <v>77.54333333333335</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4773,11 +5019,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -4789,22 +5035,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="C122" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="D122" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="E122" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="F122" t="n">
-        <v>2315.4508</v>
+        <v>10751.1273</v>
       </c>
       <c r="G122" t="n">
-        <v>77.54500000000002</v>
+        <v>77.53666666666668</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4813,8 +5059,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4824,22 +5076,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="C123" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="D123" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="E123" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="F123" t="n">
-        <v>6330</v>
+        <v>2315.4508</v>
       </c>
       <c r="G123" t="n">
-        <v>77.55833333333335</v>
+        <v>77.54500000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4848,8 +5100,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4859,22 +5117,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="D124" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="E124" t="n">
-        <v>77.7</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>199.5</v>
+        <v>6330</v>
       </c>
       <c r="G124" t="n">
-        <v>77.56500000000001</v>
+        <v>77.55833333333335</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4883,8 +5141,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4894,33 +5158,80 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>77.56500000000001</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C126" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D126" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E126" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F126" t="n">
         <v>7010</v>
       </c>
-      <c r="G125" t="n">
+      <c r="G126" t="n">
         <v>77.57666666666668</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>118.0571</v>
       </c>
       <c r="G2" t="n">
+        <v>76.70666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>77.24999999999991</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>16649.1209</v>
       </c>
       <c r="G3" t="n">
+        <v>76.68666666666668</v>
+      </c>
+      <c r="H3" t="n">
         <v>77.22999999999989</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>12500</v>
       </c>
       <c r="G4" t="n">
+        <v>76.67333333333336</v>
+      </c>
+      <c r="H4" t="n">
         <v>77.20999999999988</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>12110</v>
       </c>
       <c r="G5" t="n">
+        <v>76.70000000000003</v>
+      </c>
+      <c r="H5" t="n">
         <v>77.20333333333322</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>14</v>
       </c>
       <c r="G6" t="n">
+        <v>76.73333333333336</v>
+      </c>
+      <c r="H6" t="n">
         <v>77.20166666666655</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
+        <v>76.76000000000003</v>
+      </c>
+      <c r="H7" t="n">
         <v>77.19833333333322</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>88.5064</v>
       </c>
       <c r="G8" t="n">
+        <v>76.7866666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>77.18833333333322</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>88.8526</v>
       </c>
       <c r="G9" t="n">
+        <v>76.77333333333337</v>
+      </c>
+      <c r="H9" t="n">
         <v>77.18499999999989</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>10340</v>
       </c>
       <c r="G10" t="n">
+        <v>76.74000000000004</v>
+      </c>
+      <c r="H10" t="n">
         <v>77.17833333333321</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1945.893089960887</v>
       </c>
       <c r="G11" t="n">
+        <v>76.7266666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>77.16999999999987</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>397.6679</v>
       </c>
       <c r="G12" t="n">
+        <v>76.69333333333337</v>
+      </c>
+      <c r="H12" t="n">
         <v>77.15666666666654</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>5914.3407</v>
       </c>
       <c r="G13" t="n">
+        <v>76.65333333333336</v>
+      </c>
+      <c r="H13" t="n">
         <v>77.14166666666655</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>5113.4288</v>
       </c>
       <c r="G14" t="n">
+        <v>76.58000000000001</v>
+      </c>
+      <c r="H14" t="n">
         <v>77.08666666666655</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,25 @@
         <v>454.6106</v>
       </c>
       <c r="G15" t="n">
+        <v>76.56666666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>77.07666666666655</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +989,29 @@
         <v>1620.4799</v>
       </c>
       <c r="G16" t="n">
+        <v>76.56666666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>77.06166666666655</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1035,29 @@
         <v>507.3753</v>
       </c>
       <c r="G17" t="n">
+        <v>76.56666666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>77.0349999999999</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1081,25 @@
         <v>7184.7085</v>
       </c>
       <c r="G18" t="n">
+        <v>76.57333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>77.00166666666657</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1123,29 @@
         <v>2388.9999</v>
       </c>
       <c r="G19" t="n">
+        <v>76.61999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>76.98333333333325</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1169,27 @@
         <v>38.9105</v>
       </c>
       <c r="G20" t="n">
+        <v>76.62666666666665</v>
+      </c>
+      <c r="H20" t="n">
         <v>76.96999999999993</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1213,21 @@
         <v>815</v>
       </c>
       <c r="G21" t="n">
+        <v>76.64666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>76.9516666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1251,21 @@
         <v>6223.855</v>
       </c>
       <c r="G22" t="n">
+        <v>76.66666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>76.93333333333327</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1289,21 @@
         <v>1051.8669</v>
       </c>
       <c r="G23" t="n">
+        <v>76.67333333333332</v>
+      </c>
+      <c r="H23" t="n">
         <v>76.9166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1327,21 @@
         <v>10000</v>
       </c>
       <c r="G24" t="n">
+        <v>76.69999999999997</v>
+      </c>
+      <c r="H24" t="n">
         <v>76.90666666666661</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1365,21 @@
         <v>129.1989</v>
       </c>
       <c r="G25" t="n">
+        <v>76.76666666666664</v>
+      </c>
+      <c r="H25" t="n">
         <v>76.8966666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1403,21 @@
         <v>4333.4349</v>
       </c>
       <c r="G26" t="n">
+        <v>76.81999999999996</v>
+      </c>
+      <c r="H26" t="n">
         <v>76.88166666666662</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1441,21 @@
         <v>12.9366</v>
       </c>
       <c r="G27" t="n">
+        <v>76.89333333333329</v>
+      </c>
+      <c r="H27" t="n">
         <v>76.86666666666662</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1479,21 @@
         <v>3000</v>
       </c>
       <c r="G28" t="n">
+        <v>76.9733333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>76.86333333333329</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1517,21 @@
         <v>4938.3762</v>
       </c>
       <c r="G29" t="n">
+        <v>77.05999999999996</v>
+      </c>
+      <c r="H29" t="n">
         <v>76.8533333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1555,21 @@
         <v>10404.3477</v>
       </c>
       <c r="G30" t="n">
+        <v>77.11999999999996</v>
+      </c>
+      <c r="H30" t="n">
         <v>76.84666666666662</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1593,21 @@
         <v>1014.9999</v>
       </c>
       <c r="G31" t="n">
+        <v>77.21333333333331</v>
+      </c>
+      <c r="H31" t="n">
         <v>76.84833333333329</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1631,21 @@
         <v>14000.0744</v>
       </c>
       <c r="G32" t="n">
+        <v>77.29999999999997</v>
+      </c>
+      <c r="H32" t="n">
         <v>76.85166666666663</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1669,21 @@
         <v>48890.6855</v>
       </c>
       <c r="G33" t="n">
+        <v>77.37333333333329</v>
+      </c>
+      <c r="H33" t="n">
         <v>76.85999999999996</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1707,21 @@
         <v>41787.3711</v>
       </c>
       <c r="G34" t="n">
+        <v>77.40666666666662</v>
+      </c>
+      <c r="H34" t="n">
         <v>76.86666666666663</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1745,21 @@
         <v>12.9042</v>
       </c>
       <c r="G35" t="n">
+        <v>77.43333333333331</v>
+      </c>
+      <c r="H35" t="n">
         <v>76.87333333333329</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1783,21 @@
         <v>39174.1367</v>
       </c>
       <c r="G36" t="n">
+        <v>77.4533333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>76.8833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1821,21 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
+        <v>77.49333333333331</v>
+      </c>
+      <c r="H37" t="n">
         <v>76.90333333333329</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1859,21 @@
         <v>12.87</v>
       </c>
       <c r="G38" t="n">
+        <v>77.53333333333332</v>
+      </c>
+      <c r="H38" t="n">
         <v>76.91499999999996</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1897,21 @@
         <v>3059.2086</v>
       </c>
       <c r="G39" t="n">
+        <v>77.56666666666665</v>
+      </c>
+      <c r="H39" t="n">
         <v>76.92166666666664</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1935,21 @@
         <v>5148.005148005148</v>
       </c>
       <c r="G40" t="n">
+        <v>77.58666666666664</v>
+      </c>
+      <c r="H40" t="n">
         <v>76.93499999999997</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1973,21 @@
         <v>4665.7328</v>
       </c>
       <c r="G41" t="n">
+        <v>77.55999999999997</v>
+      </c>
+      <c r="H41" t="n">
         <v>76.93999999999998</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2011,21 @@
         <v>65362.806</v>
       </c>
       <c r="G42" t="n">
+        <v>77.52666666666664</v>
+      </c>
+      <c r="H42" t="n">
         <v>76.94499999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2049,21 @@
         <v>1253.5349</v>
       </c>
       <c r="G43" t="n">
+        <v>77.49333333333331</v>
+      </c>
+      <c r="H43" t="n">
         <v>76.95333333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2087,21 @@
         <v>6393.8078</v>
       </c>
       <c r="G44" t="n">
+        <v>77.45333333333332</v>
+      </c>
+      <c r="H44" t="n">
         <v>76.96333333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2125,21 @@
         <v>599.8528</v>
       </c>
       <c r="G45" t="n">
+        <v>77.43999999999998</v>
+      </c>
+      <c r="H45" t="n">
         <v>76.97166666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2163,21 @@
         <v>1210.2581</v>
       </c>
       <c r="G46" t="n">
+        <v>77.3933333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>76.97999999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2201,21 @@
         <v>13142</v>
       </c>
       <c r="G47" t="n">
+        <v>77.35333333333331</v>
+      </c>
+      <c r="H47" t="n">
         <v>76.98166666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2239,21 @@
         <v>16473</v>
       </c>
       <c r="G48" t="n">
+        <v>77.31333333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>76.98666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2277,21 @@
         <v>100</v>
       </c>
       <c r="G49" t="n">
+        <v>77.27333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>76.99333333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2315,21 @@
         <v>43380.9456</v>
       </c>
       <c r="G50" t="n">
+        <v>77.23999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>76.99999999999999</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2353,21 @@
         <v>6088.474</v>
       </c>
       <c r="G51" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="H51" t="n">
         <v>77.00833333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2391,21 @@
         <v>2000</v>
       </c>
       <c r="G52" t="n">
+        <v>77.13333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>77.01333333333331</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2429,21 @@
         <v>5000</v>
       </c>
       <c r="G53" t="n">
+        <v>77.07333333333332</v>
+      </c>
+      <c r="H53" t="n">
         <v>77.01666666666664</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2467,21 @@
         <v>3521.7</v>
       </c>
       <c r="G54" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="H54" t="n">
         <v>77.01499999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2505,25 @@
         <v>543.4585</v>
       </c>
       <c r="G55" t="n">
+        <v>76.98666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>77.01999999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L55" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,22 +2547,27 @@
         <v>5149.3919</v>
       </c>
       <c r="G56" t="n">
+        <v>77</v>
+      </c>
+      <c r="H56" t="n">
         <v>77.02666666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2377,24 +2591,27 @@
         <v>238.566</v>
       </c>
       <c r="G57" t="n">
+        <v>76.99333333333334</v>
+      </c>
+      <c r="H57" t="n">
         <v>77.02666666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2418,26 +2635,21 @@
         <v>35505.0817</v>
       </c>
       <c r="G58" t="n">
+        <v>76.98</v>
+      </c>
+      <c r="H58" t="n">
         <v>77.02500000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="K58" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,26 +2673,25 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>77.01333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>77.02666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
         <v>76.8</v>
       </c>
-      <c r="K59" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2504,24 +2715,27 @@
         <v>10010</v>
       </c>
       <c r="G60" t="n">
+        <v>77.06</v>
+      </c>
+      <c r="H60" t="n">
         <v>77.04666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2545,24 +2759,27 @@
         <v>39336.6646</v>
       </c>
       <c r="G61" t="n">
+        <v>77.11333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>77.07166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,24 +2803,21 @@
         <v>1630</v>
       </c>
       <c r="G62" t="n">
+        <v>77.18666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>77.10166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2627,24 +2841,21 @@
         <v>16870</v>
       </c>
       <c r="G63" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="H63" t="n">
         <v>77.12000000000002</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,24 +2879,21 @@
         <v>2090</v>
       </c>
       <c r="G64" t="n">
+        <v>77.24666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>77.13666666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2709,24 +2917,21 @@
         <v>44.8875</v>
       </c>
       <c r="G65" t="n">
+        <v>77.26666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>77.14166666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,24 +2955,21 @@
         <v>8249.116400000001</v>
       </c>
       <c r="G66" t="n">
+        <v>77.29333333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>77.14833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2791,24 +2993,21 @@
         <v>5000</v>
       </c>
       <c r="G67" t="n">
+        <v>77.32666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>77.155</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,26 +3031,21 @@
         <v>395.4461</v>
       </c>
       <c r="G68" t="n">
+        <v>77.37333333333335</v>
+      </c>
+      <c r="H68" t="n">
         <v>77.16333333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="K68" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,26 +3069,21 @@
         <v>10000</v>
       </c>
       <c r="G69" t="n">
+        <v>77.40666666666668</v>
+      </c>
+      <c r="H69" t="n">
         <v>77.17333333333335</v>
       </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="K69" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,24 +3107,21 @@
         <v>11649.3073</v>
       </c>
       <c r="G70" t="n">
+        <v>77.41333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>77.18833333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2959,24 +3145,21 @@
         <v>2630</v>
       </c>
       <c r="G71" t="n">
+        <v>77.41333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>77.19833333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,24 +3183,21 @@
         <v>3450</v>
       </c>
       <c r="G72" t="n">
+        <v>77.45333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>77.2166666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3041,24 +3221,21 @@
         <v>862.5</v>
       </c>
       <c r="G73" t="n">
+        <v>77.52</v>
+      </c>
+      <c r="H73" t="n">
         <v>77.2416666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,24 +3259,21 @@
         <v>600</v>
       </c>
       <c r="G74" t="n">
+        <v>77.53333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>77.26500000000003</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3123,24 +3297,21 @@
         <v>43468.208</v>
       </c>
       <c r="G75" t="n">
+        <v>77.52</v>
+      </c>
+      <c r="H75" t="n">
         <v>77.28500000000003</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3164,24 +3335,21 @@
         <v>1615.518</v>
       </c>
       <c r="G76" t="n">
+        <v>77.50666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>77.30666666666669</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3205,24 +3373,21 @@
         <v>389.4155</v>
       </c>
       <c r="G77" t="n">
+        <v>77.47333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>77.32833333333336</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,24 +3411,21 @@
         <v>6739.9999</v>
       </c>
       <c r="G78" t="n">
+        <v>77.47999999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>77.34666666666671</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3287,24 +3449,21 @@
         <v>2529.4939</v>
       </c>
       <c r="G79" t="n">
+        <v>77.50666666666665</v>
+      </c>
+      <c r="H79" t="n">
         <v>77.35833333333336</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,24 +3487,21 @@
         <v>233.5218</v>
       </c>
       <c r="G80" t="n">
+        <v>77.53999999999998</v>
+      </c>
+      <c r="H80" t="n">
         <v>77.37000000000003</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,24 +3525,21 @@
         <v>10000</v>
       </c>
       <c r="G81" t="n">
+        <v>77.5533333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>77.37500000000003</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3410,24 +3563,21 @@
         <v>15937.1289</v>
       </c>
       <c r="G82" t="n">
+        <v>77.56666666666662</v>
+      </c>
+      <c r="H82" t="n">
         <v>77.38000000000004</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3451,24 +3601,21 @@
         <v>50</v>
       </c>
       <c r="G83" t="n">
+        <v>77.56666666666662</v>
+      </c>
+      <c r="H83" t="n">
         <v>77.3866666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,24 +3639,21 @@
         <v>2564.720819230769</v>
       </c>
       <c r="G84" t="n">
+        <v>77.61333333333329</v>
+      </c>
+      <c r="H84" t="n">
         <v>77.40166666666669</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3533,24 +3677,21 @@
         <v>264.7564</v>
       </c>
       <c r="G85" t="n">
+        <v>77.65999999999995</v>
+      </c>
+      <c r="H85" t="n">
         <v>77.41166666666669</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3574,24 +3715,21 @@
         <v>106</v>
       </c>
       <c r="G86" t="n">
+        <v>77.69999999999997</v>
+      </c>
+      <c r="H86" t="n">
         <v>77.41833333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,24 +3753,21 @@
         <v>476.0794</v>
       </c>
       <c r="G87" t="n">
+        <v>77.72666666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>77.42500000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3656,24 +3791,21 @@
         <v>472.5392</v>
       </c>
       <c r="G88" t="n">
+        <v>77.72666666666665</v>
+      </c>
+      <c r="H88" t="n">
         <v>77.43000000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3697,24 +3829,21 @@
         <v>313.0605</v>
       </c>
       <c r="G89" t="n">
+        <v>77.73333333333331</v>
+      </c>
+      <c r="H89" t="n">
         <v>77.43333333333335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,24 +3867,21 @@
         <v>311.4971</v>
       </c>
       <c r="G90" t="n">
+        <v>77.7533333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>77.44333333333336</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3779,24 +3905,21 @@
         <v>155.4891</v>
       </c>
       <c r="G91" t="n">
+        <v>77.76666666666664</v>
+      </c>
+      <c r="H91" t="n">
         <v>77.44500000000002</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,24 +3943,21 @@
         <v>443.9696</v>
       </c>
       <c r="G92" t="n">
+        <v>77.78666666666665</v>
+      </c>
+      <c r="H92" t="n">
         <v>77.45000000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,24 +3981,21 @@
         <v>310.2651</v>
       </c>
       <c r="G93" t="n">
+        <v>77.80666666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>77.455</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,24 +4019,21 @@
         <v>309.4895</v>
       </c>
       <c r="G94" t="n">
+        <v>77.79333333333332</v>
+      </c>
+      <c r="H94" t="n">
         <v>77.455</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3943,24 +4057,21 @@
         <v>30</v>
       </c>
       <c r="G95" t="n">
+        <v>77.80666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>77.46333333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,24 +4095,21 @@
         <v>34</v>
       </c>
       <c r="G96" t="n">
+        <v>77.83333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>77.47</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,24 +4133,21 @@
         <v>28370</v>
       </c>
       <c r="G97" t="n">
+        <v>77.83333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>77.465</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,24 +4171,21 @@
         <v>59976.79</v>
       </c>
       <c r="G98" t="n">
+        <v>77.83333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>77.46166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4107,24 +4209,21 @@
         <v>295</v>
       </c>
       <c r="G99" t="n">
+        <v>77.81333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>77.46333333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4148,24 +4247,21 @@
         <v>3430</v>
       </c>
       <c r="G100" t="n">
+        <v>77.80666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>77.46666666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4189,24 +4285,21 @@
         <v>11120</v>
       </c>
       <c r="G101" t="n">
+        <v>77.81333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>77.48166666666665</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4230,24 +4323,21 @@
         <v>5000</v>
       </c>
       <c r="G102" t="n">
+        <v>77.81999999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>77.49833333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,24 +4361,21 @@
         <v>6638.0033</v>
       </c>
       <c r="G103" t="n">
+        <v>77.83999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>77.51666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,24 +4399,21 @@
         <v>585.0897</v>
       </c>
       <c r="G104" t="n">
+        <v>77.85333333333332</v>
+      </c>
+      <c r="H104" t="n">
         <v>77.53333333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,24 +4437,21 @@
         <v>14000</v>
       </c>
       <c r="G105" t="n">
+        <v>77.83333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>77.54166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4394,24 +4475,21 @@
         <v>348.6403</v>
       </c>
       <c r="G106" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="H106" t="n">
         <v>77.54666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4435,24 +4513,21 @@
         <v>15110.9999</v>
       </c>
       <c r="G107" t="n">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>77.54666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,24 +4551,21 @@
         <v>17499</v>
       </c>
       <c r="G108" t="n">
+        <v>77.67999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>77.54666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4517,24 +4589,21 @@
         <v>622.3251</v>
       </c>
       <c r="G109" t="n">
+        <v>77.64</v>
+      </c>
+      <c r="H109" t="n">
         <v>77.54666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,24 +4627,21 @@
         <v>1840</v>
       </c>
       <c r="G110" t="n">
+        <v>77.57333333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>77.54666666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4599,24 +4665,21 @@
         <v>30458.5006</v>
       </c>
       <c r="G111" t="n">
+        <v>77.47999999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>77.54000000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4640,24 +4703,21 @@
         <v>8497.6427</v>
       </c>
       <c r="G112" t="n">
+        <v>77.45333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>77.54500000000002</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,24 +4741,21 @@
         <v>1151.472</v>
       </c>
       <c r="G113" t="n">
+        <v>77.40666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>77.54500000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4722,24 +4779,21 @@
         <v>10229.8132</v>
       </c>
       <c r="G114" t="n">
+        <v>77.34666666666665</v>
+      </c>
+      <c r="H114" t="n">
         <v>77.54500000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4763,24 +4817,21 @@
         <v>3300.5924</v>
       </c>
       <c r="G115" t="n">
+        <v>77.26666666666665</v>
+      </c>
+      <c r="H115" t="n">
         <v>77.53666666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,24 +4855,21 @@
         <v>2240</v>
       </c>
       <c r="G116" t="n">
+        <v>77.20666666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>77.53333333333335</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,24 +4893,21 @@
         <v>5692.8504</v>
       </c>
       <c r="G117" t="n">
+        <v>77.12666666666664</v>
+      </c>
+      <c r="H117" t="n">
         <v>77.53166666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,24 +4931,21 @@
         <v>5920</v>
       </c>
       <c r="G118" t="n">
+        <v>77.09333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>77.54500000000003</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,24 +4969,21 @@
         <v>415.9999</v>
       </c>
       <c r="G119" t="n">
+        <v>77.05999999999997</v>
+      </c>
+      <c r="H119" t="n">
         <v>77.54500000000003</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4968,24 +5007,21 @@
         <v>12210</v>
       </c>
       <c r="G120" t="n">
+        <v>77.07333333333331</v>
+      </c>
+      <c r="H120" t="n">
         <v>77.54500000000003</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,24 +5045,21 @@
         <v>596</v>
       </c>
       <c r="G121" t="n">
+        <v>77.09999999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>77.54333333333335</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5050,24 +5083,21 @@
         <v>10751.1273</v>
       </c>
       <c r="G122" t="n">
+        <v>77.14666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>77.53666666666668</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5091,24 +5121,21 @@
         <v>2315.4508</v>
       </c>
       <c r="G123" t="n">
+        <v>77.21333333333332</v>
+      </c>
+      <c r="H123" t="n">
         <v>77.54500000000002</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5132,24 +5159,21 @@
         <v>6330</v>
       </c>
       <c r="G124" t="n">
+        <v>77.29333333333332</v>
+      </c>
+      <c r="H124" t="n">
         <v>77.55833333333335</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,24 +5197,21 @@
         <v>199.5</v>
       </c>
       <c r="G125" t="n">
+        <v>77.33999999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>77.56500000000001</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,24 +5235,401 @@
         <v>7010</v>
       </c>
       <c r="G126" t="n">
+        <v>77.44</v>
+      </c>
+      <c r="H126" t="n">
         <v>77.57666666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D127" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11160</v>
+      </c>
+      <c r="G127" t="n">
+        <v>77.50666666666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>77.59000000000002</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F128" t="n">
+        <v>105.2685</v>
+      </c>
+      <c r="G128" t="n">
+        <v>77.59333333333332</v>
+      </c>
+      <c r="H128" t="n">
+        <v>77.60000000000004</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D129" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>105.5313</v>
+      </c>
+      <c r="G129" t="n">
+        <v>77.67999999999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>77.61333333333337</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>78</v>
+      </c>
+      <c r="C130" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D130" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>78</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2277.5639</v>
+      </c>
+      <c r="G130" t="n">
+        <v>77.77333333333331</v>
+      </c>
+      <c r="H130" t="n">
+        <v>77.62666666666671</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F131" t="n">
+        <v>167.708</v>
+      </c>
+      <c r="G131" t="n">
+        <v>77.83999999999997</v>
+      </c>
+      <c r="H131" t="n">
+        <v>77.64000000000004</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2039.4881</v>
+      </c>
+      <c r="G132" t="n">
+        <v>77.88666666666664</v>
+      </c>
+      <c r="H132" t="n">
+        <v>77.64000000000004</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5646.4959</v>
+      </c>
+      <c r="G133" t="n">
+        <v>77.87999999999998</v>
+      </c>
+      <c r="H133" t="n">
+        <v>77.63500000000003</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C134" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E134" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3011.0418</v>
+      </c>
+      <c r="G134" t="n">
+        <v>77.87999999999998</v>
+      </c>
+      <c r="H134" t="n">
+        <v>77.6316666666667</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>35546.1712</v>
+      </c>
+      <c r="G135" t="n">
+        <v>77.83999999999997</v>
+      </c>
+      <c r="H135" t="n">
+        <v>77.62500000000004</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5418.3564</v>
+      </c>
+      <c r="G136" t="n">
+        <v>77.79999999999997</v>
+      </c>
+      <c r="H136" t="n">
+        <v>77.61666666666672</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E2" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1448.0284</v>
+        <v>454.6106</v>
       </c>
       <c r="G2" t="n">
-        <v>493638.0582693467</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="C3" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="D3" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="E3" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="F3" t="n">
-        <v>10112.2279</v>
+        <v>1620.4799</v>
       </c>
       <c r="G3" t="n">
-        <v>503750.2861693467</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C4" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D4" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="E4" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001</v>
+        <v>507.3753</v>
       </c>
       <c r="G4" t="n">
-        <v>503750.2860693467</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="D5" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="E5" t="n">
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="F5" t="n">
-        <v>7329.8429</v>
+        <v>7184.7085</v>
       </c>
       <c r="G5" t="n">
-        <v>496420.4431693467</v>
+        <v>556687.5367593076</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>392.6984</v>
+        <v>2388.9999</v>
       </c>
       <c r="G6" t="n">
-        <v>496027.7447693467</v>
+        <v>559076.5366593077</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>10188.2634</v>
+        <v>38.9105</v>
       </c>
       <c r="G7" t="n">
-        <v>506216.0081693467</v>
+        <v>559076.5366593077</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="C8" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="D8" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="E8" t="n">
-        <v>77.2</v>
+        <v>77.3</v>
       </c>
       <c r="F8" t="n">
-        <v>151.774</v>
+        <v>815</v>
       </c>
       <c r="G8" t="n">
-        <v>506367.7821693467</v>
+        <v>559891.5366593077</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C9" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D9" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E9" t="n">
-        <v>76.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1360</v>
+        <v>6223.855</v>
       </c>
       <c r="G9" t="n">
-        <v>505007.7821693467</v>
+        <v>559891.5366593077</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>11284.1704</v>
+        <v>1051.8669</v>
       </c>
       <c r="G10" t="n">
-        <v>493723.6117693467</v>
+        <v>558839.6697593076</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>76.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>818.4224</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>492905.1893693467</v>
+        <v>558839.6697593076</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,67 +791,65 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1975.05</v>
+        <v>129.1989</v>
       </c>
       <c r="G12" t="n">
-        <v>490930.1393693467</v>
+        <v>558968.8686593076</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>76.7</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>76.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C13" t="n">
-        <v>76.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D13" t="n">
-        <v>76.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E13" t="n">
-        <v>76.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F13" t="n">
-        <v>277.6764</v>
+        <v>4333.4349</v>
       </c>
       <c r="G13" t="n">
-        <v>490652.4629693467</v>
+        <v>563302.3035593076</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -846,82 +858,70 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="C14" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="D14" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="E14" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="F14" t="n">
-        <v>178.2802</v>
+        <v>12.9366</v>
       </c>
       <c r="G14" t="n">
-        <v>490830.7431693467</v>
+        <v>563302.3035593076</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>76.40000000000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="C15" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="D15" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="E15" t="n">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="F15" t="n">
-        <v>39.8936</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>490830.7431693467</v>
+        <v>563302.3035593076</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>11681.7692</v>
+        <v>4938.3762</v>
       </c>
       <c r="G16" t="n">
-        <v>502512.5123693467</v>
+        <v>568240.6797593076</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,34 +971,35 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="C17" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="D17" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="E17" t="n">
-        <v>76.7</v>
+        <v>77.2</v>
       </c>
       <c r="F17" t="n">
-        <v>781</v>
+        <v>10404.3477</v>
       </c>
       <c r="G17" t="n">
-        <v>501731.5123693467</v>
+        <v>557836.3320593076</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1005,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C18" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D18" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E18" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1574.386</v>
+        <v>1014.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>500157.1263693467</v>
+        <v>558851.3319593077</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>691.6295</v>
+        <v>14000.0744</v>
       </c>
       <c r="G19" t="n">
-        <v>500157.1263693467</v>
+        <v>544851.2575593076</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="C20" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>76.5</v>
+        <v>77.8</v>
       </c>
       <c r="E20" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>5228.7581</v>
+        <v>48890.6855</v>
       </c>
       <c r="G20" t="n">
-        <v>494928.3682693467</v>
+        <v>544851.2575593076</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>76.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>2750</v>
+        <v>41787.3711</v>
       </c>
       <c r="G21" t="n">
-        <v>497678.3682693467</v>
+        <v>544851.2575593076</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C22" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D22" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E22" t="n">
-        <v>76.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F22" t="n">
-        <v>556</v>
+        <v>12.9042</v>
       </c>
       <c r="G22" t="n">
-        <v>497678.3682693467</v>
+        <v>544838.3533593076</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>76.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>3660</v>
+        <v>39174.1367</v>
       </c>
       <c r="G23" t="n">
-        <v>501338.3682693467</v>
+        <v>584012.4900593077</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>76.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="C24" t="n">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>76.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1300.390117035111</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>501338.3682693467</v>
+        <v>584022.4900593077</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C25" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D25" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E25" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F25" t="n">
-        <v>130</v>
+        <v>12.87</v>
       </c>
       <c r="G25" t="n">
-        <v>501338.3682693467</v>
+        <v>584009.6200593077</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>3660</v>
+        <v>3059.2086</v>
       </c>
       <c r="G26" t="n">
-        <v>501338.3682693467</v>
+        <v>580950.4114593077</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C27" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D27" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E27" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F27" t="n">
-        <v>1299</v>
+        <v>5148.005148005148</v>
       </c>
       <c r="G27" t="n">
-        <v>501338.3682693467</v>
+        <v>586098.4166073129</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>77.40000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>76.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>39305.9369</v>
+        <v>4665.7328</v>
       </c>
       <c r="G28" t="n">
-        <v>540644.3051693467</v>
+        <v>581432.6838073129</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="D29" t="n">
-        <v>76.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>76.5</v>
+        <v>77</v>
       </c>
       <c r="F29" t="n">
-        <v>105.6297</v>
+        <v>65362.806</v>
       </c>
       <c r="G29" t="n">
-        <v>540538.6754693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="C30" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="D30" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="E30" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>1253.5349</v>
       </c>
       <c r="G30" t="n">
-        <v>535538.6754693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="C31" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="D31" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="E31" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="F31" t="n">
-        <v>118.0571</v>
+        <v>6393.8078</v>
       </c>
       <c r="G31" t="n">
-        <v>535538.6754693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C32" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D32" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E32" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F32" t="n">
-        <v>16649.1209</v>
+        <v>599.8528</v>
       </c>
       <c r="G32" t="n">
-        <v>552187.7963693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C33" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D33" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E33" t="n">
-        <v>76.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F33" t="n">
-        <v>12500</v>
+        <v>1210.2581</v>
       </c>
       <c r="G33" t="n">
-        <v>552187.7963693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1583,10 +1602,10 @@
         <v>77</v>
       </c>
       <c r="F34" t="n">
-        <v>12110</v>
+        <v>13142</v>
       </c>
       <c r="G34" t="n">
-        <v>564297.7963693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1618,10 +1638,10 @@
         <v>77</v>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>16473</v>
       </c>
       <c r="G35" t="n">
-        <v>564297.7963693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1653,10 +1674,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>564297.7963693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1688,10 +1710,10 @@
         <v>77</v>
       </c>
       <c r="F37" t="n">
-        <v>88.5064</v>
+        <v>43380.9456</v>
       </c>
       <c r="G37" t="n">
-        <v>564297.7963693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D38" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E38" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F38" t="n">
-        <v>88.8526</v>
+        <v>6088.474</v>
       </c>
       <c r="G38" t="n">
-        <v>564208.9437693467</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>76.59999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>76.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>10340</v>
+        <v>2000</v>
       </c>
       <c r="G39" t="n">
-        <v>553868.9437693467</v>
+        <v>514069.8778073129</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="D40" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>76.7</v>
+        <v>76.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1945.893089960887</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="n">
-        <v>555814.8368593076</v>
+        <v>509069.8778073129</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="C41" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D41" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="E41" t="n">
-        <v>76.40000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F41" t="n">
-        <v>397.6679</v>
+        <v>3521.7</v>
       </c>
       <c r="G41" t="n">
-        <v>555417.1689593076</v>
+        <v>509069.8778073129</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="C42" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="D42" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="E42" t="n">
-        <v>76.3</v>
+        <v>77.2</v>
       </c>
       <c r="F42" t="n">
-        <v>5914.3407</v>
+        <v>543.4585</v>
       </c>
       <c r="G42" t="n">
-        <v>549502.8282593077</v>
+        <v>509613.3363073129</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>76.3</v>
+        <v>77.3</v>
       </c>
       <c r="C43" t="n">
-        <v>76.3</v>
+        <v>77.3</v>
       </c>
       <c r="D43" t="n">
-        <v>76.3</v>
+        <v>77.3</v>
       </c>
       <c r="E43" t="n">
-        <v>76.3</v>
+        <v>77.3</v>
       </c>
       <c r="F43" t="n">
-        <v>5113.4288</v>
+        <v>5149.3919</v>
       </c>
       <c r="G43" t="n">
-        <v>549502.8282593077</v>
+        <v>514762.7282073129</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>454.6106</v>
+        <v>238.566</v>
       </c>
       <c r="G44" t="n">
-        <v>549502.8282593077</v>
+        <v>514524.1622073129</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>76.3</v>
+        <v>76.8</v>
       </c>
       <c r="D45" t="n">
-        <v>76.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>76.3</v>
+        <v>76.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1620.4799</v>
+        <v>35505.0817</v>
       </c>
       <c r="G45" t="n">
-        <v>549502.8282593077</v>
+        <v>479019.0805073129</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="C46" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="D46" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="E46" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="F46" t="n">
-        <v>507.3753</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>549502.8282593077</v>
+        <v>479029.0805073129</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="D47" t="n">
-        <v>76.5</v>
+        <v>77.7</v>
       </c>
       <c r="E47" t="n">
-        <v>76.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>7184.7085</v>
+        <v>10010</v>
       </c>
       <c r="G47" t="n">
-        <v>556687.5367593076</v>
+        <v>489039.0805073129</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C48" t="n">
-        <v>77.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="D48" t="n">
-        <v>77.09999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E48" t="n">
-        <v>77.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F48" t="n">
-        <v>2388.9999</v>
+        <v>39336.6646</v>
       </c>
       <c r="G48" t="n">
-        <v>559076.5366593077</v>
+        <v>528375.7451073129</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>77.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C49" t="n">
-        <v>77.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>77.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>77.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="F49" t="n">
-        <v>38.9105</v>
+        <v>1630</v>
       </c>
       <c r="G49" t="n">
-        <v>559076.5366593077</v>
+        <v>530005.7451073129</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2125,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>77.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D50" t="n">
-        <v>77.3</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F50" t="n">
-        <v>815</v>
+        <v>16870</v>
       </c>
       <c r="G50" t="n">
-        <v>559891.5366593077</v>
+        <v>513135.7451073129</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2160,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>6223.855</v>
+        <v>2090</v>
       </c>
       <c r="G51" t="n">
-        <v>559891.5366593077</v>
+        <v>511045.7451073129</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2195,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C52" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D52" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E52" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1051.8669</v>
+        <v>44.8875</v>
       </c>
       <c r="G52" t="n">
-        <v>558839.6697593076</v>
+        <v>511000.8576073129</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>10000</v>
+        <v>8249.116400000001</v>
       </c>
       <c r="G53" t="n">
-        <v>558839.6697593076</v>
+        <v>519249.9740073129</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C54" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E54" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>129.1989</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="n">
-        <v>558968.8686593076</v>
+        <v>519249.9740073129</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,13 +2339,14 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="C55" t="n">
         <v>77.5</v>
@@ -2315,13 +2355,13 @@
         <v>77.5</v>
       </c>
       <c r="E55" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F55" t="n">
-        <v>4333.4349</v>
+        <v>395.4461</v>
       </c>
       <c r="G55" t="n">
-        <v>563302.3035593076</v>
+        <v>519645.4201073129</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2344,19 +2385,19 @@
         <v>77.5</v>
       </c>
       <c r="C56" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="D56" t="n">
         <v>77.5</v>
       </c>
       <c r="E56" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F56" t="n">
-        <v>12.9366</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="n">
-        <v>563302.3035593076</v>
+        <v>509645.4201073129</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2379,19 +2421,19 @@
         <v>77.5</v>
       </c>
       <c r="C57" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="D57" t="n">
         <v>77.5</v>
       </c>
       <c r="E57" t="n">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>11649.3073</v>
       </c>
       <c r="G57" t="n">
-        <v>563302.3035593076</v>
+        <v>509645.4201073129</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C58" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D58" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E58" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F58" t="n">
-        <v>4938.3762</v>
+        <v>2630</v>
       </c>
       <c r="G58" t="n">
-        <v>568240.6797593076</v>
+        <v>509645.4201073129</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="C59" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="D59" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="E59" t="n">
-        <v>77.2</v>
+        <v>77.5</v>
       </c>
       <c r="F59" t="n">
-        <v>10404.3477</v>
+        <v>3450</v>
       </c>
       <c r="G59" t="n">
-        <v>557836.3320593076</v>
+        <v>513095.4201073129</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C60" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="D60" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="E60" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F60" t="n">
-        <v>1014.9999</v>
+        <v>862.5</v>
       </c>
       <c r="G60" t="n">
-        <v>558851.3319593077</v>
+        <v>513957.9201073129</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C61" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D61" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E61" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F61" t="n">
-        <v>14000.0744</v>
+        <v>600</v>
       </c>
       <c r="G61" t="n">
-        <v>544851.2575593076</v>
+        <v>513357.9201073129</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="C62" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D62" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="E62" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F62" t="n">
-        <v>48890.6855</v>
+        <v>43468.208</v>
       </c>
       <c r="G62" t="n">
-        <v>544851.2575593076</v>
+        <v>469889.7121073129</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2598,10 +2646,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>41787.3711</v>
+        <v>1615.518</v>
       </c>
       <c r="G63" t="n">
-        <v>544851.2575593076</v>
+        <v>471505.2301073129</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E64" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>12.9042</v>
+        <v>389.4155</v>
       </c>
       <c r="G64" t="n">
-        <v>544838.3533593076</v>
+        <v>471505.2301073129</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2668,10 +2718,10 @@
         <v>77.59999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>39174.1367</v>
+        <v>6739.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>584012.4900593077</v>
+        <v>471505.2301073129</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C66" t="n">
         <v>77.8</v>
       </c>
-      <c r="C66" t="n">
-        <v>77.90000000000001</v>
-      </c>
       <c r="D66" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="E66" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>2529.4939</v>
       </c>
       <c r="G66" t="n">
-        <v>584022.4900593077</v>
+        <v>474034.7240073129</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="C67" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="D67" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="E67" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="F67" t="n">
-        <v>12.87</v>
+        <v>233.5218</v>
       </c>
       <c r="G67" t="n">
-        <v>584009.6200593077</v>
+        <v>474034.7240073129</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C68" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E68" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>3059.2086</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>580950.4114593077</v>
+        <v>464034.7240073129</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>77.7</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>5148.005148005148</v>
+        <v>15937.1289</v>
       </c>
       <c r="G69" t="n">
-        <v>586098.4166073129</v>
+        <v>464034.7240073129</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C70" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D70" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E70" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F70" t="n">
-        <v>4665.7328</v>
+        <v>50</v>
       </c>
       <c r="G70" t="n">
-        <v>581432.6838073129</v>
+        <v>463984.7240073129</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,63 +2915,69 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>77.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="C71" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" t="n">
-        <v>77.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E71" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="F71" t="n">
-        <v>65362.806</v>
+        <v>2564.720819230769</v>
       </c>
       <c r="G71" t="n">
-        <v>516069.8778073129</v>
+        <v>466549.4448265437</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>77.5</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E72" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F72" t="n">
-        <v>1253.5349</v>
+        <v>264.7564</v>
       </c>
       <c r="G72" t="n">
-        <v>516069.8778073129</v>
+        <v>466549.4448265437</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2925,33 +2986,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>6393.8078</v>
+        <v>106</v>
       </c>
       <c r="G73" t="n">
-        <v>516069.8778073129</v>
+        <v>466443.4448265437</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2960,33 +3028,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>599.8528</v>
+        <v>476.0794</v>
       </c>
       <c r="G74" t="n">
-        <v>516069.8778073129</v>
+        <v>466443.4448265437</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,34 +3075,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="D75" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="F75" t="n">
-        <v>1210.2581</v>
+        <v>472.5392</v>
       </c>
       <c r="G75" t="n">
-        <v>516069.8778073129</v>
+        <v>465970.9056265437</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3035,28 +3111,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="C76" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="D76" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="E76" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="F76" t="n">
-        <v>13142</v>
+        <v>313.0605</v>
       </c>
       <c r="G76" t="n">
-        <v>516069.8778073129</v>
+        <v>465970.9056265437</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,34 +3147,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="C77" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="D77" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="E77" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="F77" t="n">
-        <v>16473</v>
+        <v>311.4971</v>
       </c>
       <c r="G77" t="n">
-        <v>516069.8778073129</v>
+        <v>465970.9056265437</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3105,34 +3183,35 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="C78" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="D78" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="E78" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>155.4891</v>
       </c>
       <c r="G78" t="n">
-        <v>516069.8778073129</v>
+        <v>465970.9056265437</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3140,34 +3219,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>43380.9456</v>
+        <v>443.9696</v>
       </c>
       <c r="G79" t="n">
-        <v>516069.8778073129</v>
+        <v>466414.8752265437</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3175,34 +3255,35 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>6088.474</v>
+        <v>310.2651</v>
       </c>
       <c r="G80" t="n">
-        <v>516069.8778073129</v>
+        <v>466414.8752265437</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3210,34 +3291,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>76.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>309.4895</v>
       </c>
       <c r="G81" t="n">
-        <v>514069.8778073129</v>
+        <v>466105.3857265437</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3245,34 +3327,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>76.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C82" t="n">
-        <v>76.8</v>
+        <v>78</v>
       </c>
       <c r="D82" t="n">
-        <v>76.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="E82" t="n">
-        <v>76.8</v>
+        <v>78</v>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>509069.8778073129</v>
+        <v>466135.3857265437</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3280,34 +3363,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>76.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>76.8</v>
+        <v>78</v>
       </c>
       <c r="D83" t="n">
-        <v>76.8</v>
+        <v>78</v>
       </c>
       <c r="E83" t="n">
-        <v>76.8</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>3521.7</v>
+        <v>34</v>
       </c>
       <c r="G83" t="n">
-        <v>509069.8778073129</v>
+        <v>466135.3857265437</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3315,34 +3399,35 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>77.2</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>543.4585</v>
+        <v>28370</v>
       </c>
       <c r="G84" t="n">
-        <v>509613.3363073129</v>
+        <v>437765.3857265437</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3350,34 +3435,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>77.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D85" t="n">
-        <v>77.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F85" t="n">
-        <v>5149.3919</v>
+        <v>59976.79</v>
       </c>
       <c r="G85" t="n">
-        <v>514762.7282073129</v>
+        <v>377788.5957265437</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3385,28 +3471,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="D86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E86" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="F86" t="n">
-        <v>238.566</v>
+        <v>295</v>
       </c>
       <c r="G86" t="n">
-        <v>514524.1622073129</v>
+        <v>378083.5957265437</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,28 +3507,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>76.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>76.90000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>76.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>35505.0817</v>
+        <v>3430</v>
       </c>
       <c r="G87" t="n">
-        <v>479019.0805073129</v>
+        <v>381513.5957265437</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,28 +3543,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="D88" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="E88" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>11120</v>
       </c>
       <c r="G88" t="n">
-        <v>479029.0805073129</v>
+        <v>392633.5957265437</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,28 +3579,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>77.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="C89" t="n">
-        <v>77.7</v>
+        <v>78</v>
       </c>
       <c r="D89" t="n">
-        <v>77.7</v>
+        <v>78</v>
       </c>
       <c r="E89" t="n">
-        <v>77.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F89" t="n">
-        <v>10010</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>489039.0805073129</v>
+        <v>392633.5957265437</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,28 +3615,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="C90" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="F90" t="n">
-        <v>39336.6646</v>
+        <v>6638.0033</v>
       </c>
       <c r="G90" t="n">
-        <v>528375.7451073129</v>
+        <v>399271.5990265437</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,28 +3651,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="C91" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="D91" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E91" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="F91" t="n">
-        <v>1630</v>
+        <v>585.0897</v>
       </c>
       <c r="G91" t="n">
-        <v>530005.7451073129</v>
+        <v>398686.5093265437</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,28 +3687,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>78.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C92" t="n">
         <v>77.5</v>
       </c>
       <c r="D92" t="n">
-        <v>78.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E92" t="n">
         <v>77.5</v>
       </c>
       <c r="F92" t="n">
-        <v>16870</v>
+        <v>14000</v>
       </c>
       <c r="G92" t="n">
-        <v>513135.7451073129</v>
+        <v>384686.5093265437</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,6 +3723,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3639,19 +3733,19 @@
         <v>77.40000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D93" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F93" t="n">
-        <v>2090</v>
+        <v>348.6403</v>
       </c>
       <c r="G93" t="n">
-        <v>511045.7451073129</v>
+        <v>384337.8690265436</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,28 +3759,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="C94" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="D94" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="E94" t="n">
-        <v>77.3</v>
+        <v>77</v>
       </c>
       <c r="F94" t="n">
-        <v>44.8875</v>
+        <v>15110.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>511000.8576073129</v>
+        <v>369226.8691265436</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,203 +3795,245 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="C95" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D95" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="E95" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F95" t="n">
-        <v>8249.116400000001</v>
+        <v>17499</v>
       </c>
       <c r="G95" t="n">
-        <v>519249.9740073129</v>
+        <v>369226.8691265436</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>77</v>
+      </c>
+      <c r="K95" t="n">
+        <v>77</v>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="C96" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="D96" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E96" t="n">
-        <v>77.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="F96" t="n">
-        <v>5000</v>
+        <v>622.3251</v>
       </c>
       <c r="G96" t="n">
-        <v>519249.9740073129</v>
+        <v>369226.8691265436</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>77</v>
+      </c>
+      <c r="K96" t="n">
+        <v>77</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="C97" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="D97" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E97" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F97" t="n">
-        <v>395.4461</v>
+        <v>1840</v>
       </c>
       <c r="G97" t="n">
-        <v>519645.4201073129</v>
+        <v>369226.8691265436</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>77</v>
+      </c>
+      <c r="K97" t="n">
+        <v>77</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>10000</v>
+        <v>30458.5006</v>
       </c>
       <c r="G98" t="n">
-        <v>509645.4201073129</v>
+        <v>338768.3685265436</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>77</v>
+      </c>
+      <c r="K98" t="n">
+        <v>77</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C99" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="D99" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="E99" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="F99" t="n">
-        <v>11649.3073</v>
+        <v>8497.6427</v>
       </c>
       <c r="G99" t="n">
-        <v>509645.4201073129</v>
+        <v>347266.0112265436</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="K99" t="n">
+        <v>77</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="C100" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="D100" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="E100" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="F100" t="n">
-        <v>2630</v>
+        <v>1151.472</v>
       </c>
       <c r="G100" t="n">
-        <v>509645.4201073129</v>
+        <v>346114.5392265436</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3905,158 +4042,201 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>77</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="C101" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="D101" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="E101" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="F101" t="n">
-        <v>3450</v>
+        <v>10229.8132</v>
       </c>
       <c r="G101" t="n">
-        <v>513095.4201073129</v>
+        <v>346114.5392265436</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K101" t="n">
+        <v>77</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="C102" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="D102" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="E102" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="F102" t="n">
-        <v>862.5</v>
+        <v>3300.5924</v>
       </c>
       <c r="G102" t="n">
-        <v>513957.9201073129</v>
+        <v>342813.9468265436</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K102" t="n">
+        <v>77</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>77.7</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>600</v>
+        <v>2240</v>
       </c>
       <c r="G103" t="n">
-        <v>513357.9201073129</v>
+        <v>345053.9468265436</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="K103" t="n">
+        <v>77</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="C104" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="D104" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="E104" t="n">
-        <v>77.5</v>
+        <v>76.8</v>
       </c>
       <c r="F104" t="n">
-        <v>43468.208</v>
+        <v>5692.8504</v>
       </c>
       <c r="G104" t="n">
-        <v>469889.7121073129</v>
+        <v>339361.0964265436</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K104" t="n">
+        <v>77</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C105" t="n">
         <v>77.59999999999999</v>
@@ -4065,83 +4245,101 @@
         <v>77.59999999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F105" t="n">
-        <v>1615.518</v>
+        <v>5920</v>
       </c>
       <c r="G105" t="n">
-        <v>471505.2301073129</v>
+        <v>345281.0964265436</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>77</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C106" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D106" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E106" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="F106" t="n">
-        <v>389.4155</v>
+        <v>415.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>471505.2301073129</v>
+        <v>344865.0965265436</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K106" t="n">
+        <v>77</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C107" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D107" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E107" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F107" t="n">
-        <v>6739.9999</v>
+        <v>12210</v>
       </c>
       <c r="G107" t="n">
-        <v>471505.2301073129</v>
+        <v>357075.0965265436</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4150,11 +4348,18 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>77</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4164,159 +4369,187 @@
         <v>77.7</v>
       </c>
       <c r="C108" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D108" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="E108" t="n">
         <v>77.7</v>
       </c>
       <c r="F108" t="n">
-        <v>2529.4939</v>
+        <v>596</v>
       </c>
       <c r="G108" t="n">
-        <v>474034.7240073129</v>
+        <v>357075.0965265436</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>77</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="C109" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="D109" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="E109" t="n">
-        <v>77.8</v>
+        <v>77.7</v>
       </c>
       <c r="F109" t="n">
-        <v>233.5218</v>
+        <v>10751.1273</v>
       </c>
       <c r="G109" t="n">
-        <v>474034.7240073129</v>
+        <v>357075.0965265436</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>77</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>77.7</v>
+        <v>78</v>
       </c>
       <c r="C110" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="D110" t="n">
-        <v>77.7</v>
+        <v>78</v>
       </c>
       <c r="E110" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="F110" t="n">
-        <v>10000</v>
+        <v>2315.4508</v>
       </c>
       <c r="G110" t="n">
-        <v>464034.7240073129</v>
+        <v>359390.5473265436</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>77</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="D111" t="n">
-        <v>77.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="E111" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>15937.1289</v>
+        <v>6330</v>
       </c>
       <c r="G111" t="n">
-        <v>464034.7240073129</v>
+        <v>365720.5473265436</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>77</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="C112" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="D112" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="E112" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>199.5</v>
       </c>
       <c r="G112" t="n">
-        <v>463984.7240073129</v>
+        <v>365521.0473265436</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4325,39 +4558,46 @@
         <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>77</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M112" t="n">
-        <v>1</v>
-      </c>
+        <v>1.004090909090909</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C113" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>78</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F113" t="n">
-        <v>2564.720819230769</v>
+        <v>7010</v>
       </c>
       <c r="G113" t="n">
-        <v>466549.4448265437</v>
+        <v>372531.0473265436</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4365,28 +4605,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="C114" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="D114" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="E114" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="F114" t="n">
-        <v>264.7564</v>
+        <v>11160</v>
       </c>
       <c r="G114" t="n">
-        <v>466549.4448265437</v>
+        <v>383691.0473265436</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,28 +4641,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>106</v>
+        <v>105.2685</v>
       </c>
       <c r="G115" t="n">
-        <v>466443.4448265437</v>
+        <v>383585.7788265436</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,28 +4677,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>476.0794</v>
+        <v>105.5313</v>
       </c>
       <c r="G116" t="n">
-        <v>466443.4448265437</v>
+        <v>383585.7788265436</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,28 +4713,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C117" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>77.90000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>77.8</v>
+        <v>78</v>
       </c>
       <c r="F117" t="n">
-        <v>472.5392</v>
+        <v>2277.5639</v>
       </c>
       <c r="G117" t="n">
-        <v>465970.9056265437</v>
+        <v>383585.7788265436</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,28 +4749,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>77.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>313.0605</v>
+        <v>167.708</v>
       </c>
       <c r="G118" t="n">
-        <v>465970.9056265437</v>
+        <v>383585.7788265436</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,28 +4785,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="C119" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="D119" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="E119" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="F119" t="n">
-        <v>311.4971</v>
+        <v>2039.4881</v>
       </c>
       <c r="G119" t="n">
-        <v>465970.9056265437</v>
+        <v>381546.2907265436</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,28 +4821,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="C120" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="D120" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="E120" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="F120" t="n">
-        <v>155.4891</v>
+        <v>5646.4959</v>
       </c>
       <c r="G120" t="n">
-        <v>465970.9056265437</v>
+        <v>381546.2907265436</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,28 +4857,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C121" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="D121" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E121" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="F121" t="n">
-        <v>443.9696</v>
+        <v>3011.0418</v>
       </c>
       <c r="G121" t="n">
-        <v>466414.8752265437</v>
+        <v>381546.2907265436</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,34 +4893,35 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C122" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>77.90000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E122" t="n">
-        <v>77.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>310.2651</v>
+        <v>35546.1712</v>
       </c>
       <c r="G122" t="n">
-        <v>466414.8752265437</v>
+        <v>346000.1195265436</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4680,34 +4929,35 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>309.4895</v>
+        <v>5418.3564</v>
       </c>
       <c r="G123" t="n">
-        <v>466105.3857265437</v>
+        <v>346000.1195265436</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4715,1516 +4965,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>78</v>
-      </c>
-      <c r="C124" t="n">
-        <v>78</v>
-      </c>
-      <c r="D124" t="n">
-        <v>78</v>
-      </c>
-      <c r="E124" t="n">
-        <v>78</v>
-      </c>
-      <c r="F124" t="n">
-        <v>30</v>
-      </c>
-      <c r="G124" t="n">
-        <v>466135.3857265437</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C125" t="n">
-        <v>78</v>
-      </c>
-      <c r="D125" t="n">
-        <v>78</v>
-      </c>
-      <c r="E125" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F125" t="n">
-        <v>34</v>
-      </c>
-      <c r="G125" t="n">
-        <v>466135.3857265437</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C126" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D126" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E126" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="F126" t="n">
-        <v>28370</v>
-      </c>
-      <c r="G126" t="n">
-        <v>437765.3857265437</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="C127" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D127" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E127" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F127" t="n">
-        <v>59976.79</v>
-      </c>
-      <c r="G127" t="n">
-        <v>377788.5957265437</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>295</v>
-      </c>
-      <c r="G128" t="n">
-        <v>378083.5957265437</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="D129" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="E129" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>3430</v>
-      </c>
-      <c r="G129" t="n">
-        <v>381513.5957265437</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C130" t="n">
-        <v>78</v>
-      </c>
-      <c r="D130" t="n">
-        <v>78</v>
-      </c>
-      <c r="E130" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F130" t="n">
-        <v>11120</v>
-      </c>
-      <c r="G130" t="n">
-        <v>392633.5957265437</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>78</v>
-      </c>
-      <c r="C131" t="n">
-        <v>78</v>
-      </c>
-      <c r="D131" t="n">
-        <v>78</v>
-      </c>
-      <c r="E131" t="n">
-        <v>78</v>
-      </c>
-      <c r="F131" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>392633.5957265437</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>78</v>
-      </c>
-      <c r="C132" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D132" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E132" t="n">
-        <v>78</v>
-      </c>
-      <c r="F132" t="n">
-        <v>6638.0033</v>
-      </c>
-      <c r="G132" t="n">
-        <v>399271.5990265437</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>78</v>
-      </c>
-      <c r="C133" t="n">
-        <v>78</v>
-      </c>
-      <c r="D133" t="n">
-        <v>78</v>
-      </c>
-      <c r="E133" t="n">
-        <v>78</v>
-      </c>
-      <c r="F133" t="n">
-        <v>585.0897</v>
-      </c>
-      <c r="G133" t="n">
-        <v>398686.5093265437</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D134" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E134" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14000</v>
-      </c>
-      <c r="G134" t="n">
-        <v>384686.5093265437</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C135" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="D135" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E135" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="F135" t="n">
-        <v>348.6403</v>
-      </c>
-      <c r="G135" t="n">
-        <v>384337.8690265436</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>77</v>
-      </c>
-      <c r="C136" t="n">
-        <v>77</v>
-      </c>
-      <c r="D136" t="n">
-        <v>77</v>
-      </c>
-      <c r="E136" t="n">
-        <v>77</v>
-      </c>
-      <c r="F136" t="n">
-        <v>15110.9999</v>
-      </c>
-      <c r="G136" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>77</v>
-      </c>
-      <c r="C137" t="n">
-        <v>77</v>
-      </c>
-      <c r="D137" t="n">
-        <v>77</v>
-      </c>
-      <c r="E137" t="n">
-        <v>77</v>
-      </c>
-      <c r="F137" t="n">
-        <v>17499</v>
-      </c>
-      <c r="G137" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>77</v>
-      </c>
-      <c r="C138" t="n">
-        <v>77</v>
-      </c>
-      <c r="D138" t="n">
-        <v>77</v>
-      </c>
-      <c r="E138" t="n">
-        <v>77</v>
-      </c>
-      <c r="F138" t="n">
-        <v>622.3251</v>
-      </c>
-      <c r="G138" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>77</v>
-      </c>
-      <c r="C139" t="n">
-        <v>77</v>
-      </c>
-      <c r="D139" t="n">
-        <v>77</v>
-      </c>
-      <c r="E139" t="n">
-        <v>77</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1840</v>
-      </c>
-      <c r="G139" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="C140" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="D140" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="E140" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>30458.5006</v>
-      </c>
-      <c r="G140" t="n">
-        <v>338768.3685265436</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="D141" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="E141" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>8497.6427</v>
-      </c>
-      <c r="G141" t="n">
-        <v>347266.0112265436</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="C142" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D142" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="E142" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1151.472</v>
-      </c>
-      <c r="G142" t="n">
-        <v>346114.5392265436</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K142" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="E143" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>10229.8132</v>
-      </c>
-      <c r="G143" t="n">
-        <v>346114.5392265436</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K143" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>3300.5924</v>
-      </c>
-      <c r="G144" t="n">
-        <v>342813.9468265436</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K144" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C145" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D145" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E145" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2240</v>
-      </c>
-      <c r="G145" t="n">
-        <v>345053.9468265436</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K145" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>5692.8504</v>
-      </c>
-      <c r="G146" t="n">
-        <v>339361.0964265436</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K146" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C147" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="D147" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E147" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5920</v>
-      </c>
-      <c r="G147" t="n">
-        <v>345281.0964265436</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K147" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D148" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E148" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F148" t="n">
-        <v>415.9999</v>
-      </c>
-      <c r="G148" t="n">
-        <v>344865.0965265436</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>12210</v>
-      </c>
-      <c r="G149" t="n">
-        <v>357075.0965265436</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>596</v>
-      </c>
-      <c r="G150" t="n">
-        <v>357075.0965265436</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C151" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E151" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F151" t="n">
-        <v>10751.1273</v>
-      </c>
-      <c r="G151" t="n">
-        <v>357075.0965265436</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>78</v>
-      </c>
-      <c r="C152" t="n">
-        <v>78</v>
-      </c>
-      <c r="D152" t="n">
-        <v>78</v>
-      </c>
-      <c r="E152" t="n">
-        <v>78</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2315.4508</v>
-      </c>
-      <c r="G152" t="n">
-        <v>359390.5473265436</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C153" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6330</v>
-      </c>
-      <c r="G153" t="n">
-        <v>365720.5473265436</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="G154" t="n">
-        <v>365521.0473265436</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C155" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D155" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E155" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F155" t="n">
-        <v>7010</v>
-      </c>
-      <c r="G155" t="n">
-        <v>372531.0473265436</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11160</v>
-      </c>
-      <c r="G156" t="n">
-        <v>383691.0473265436</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C157" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D157" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E157" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F157" t="n">
-        <v>105.2685</v>
-      </c>
-      <c r="G157" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C158" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>105.5313</v>
-      </c>
-      <c r="G158" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>78</v>
-      </c>
-      <c r="C159" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D159" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E159" t="n">
-        <v>78</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2277.5639</v>
-      </c>
-      <c r="G159" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C160" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D160" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="E160" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F160" t="n">
-        <v>167.708</v>
-      </c>
-      <c r="G160" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E161" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2039.4881</v>
-      </c>
-      <c r="G161" t="n">
-        <v>381546.2907265436</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E162" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>5646.4959</v>
-      </c>
-      <c r="G162" t="n">
-        <v>381546.2907265436</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C163" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3011.0418</v>
-      </c>
-      <c r="G163" t="n">
-        <v>381546.2907265436</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D164" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F164" t="n">
-        <v>35546.1712</v>
-      </c>
-      <c r="G164" t="n">
-        <v>346000.1195265436</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="C165" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="D165" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E165" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5418.3564</v>
-      </c>
-      <c r="G165" t="n">
-        <v>346000.1195265436</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>76.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>454.6106</v>
+        <v>427.8981</v>
       </c>
       <c r="G2" t="n">
-        <v>549502.8282593077</v>
+        <v>371203.8803</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="C3" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>76.3</v>
+        <v>77.5</v>
       </c>
       <c r="E3" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>1620.4799</v>
+        <v>18985.2355</v>
       </c>
       <c r="G3" t="n">
-        <v>549502.8282593077</v>
+        <v>352218.6448</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>76.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>76.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>507.3753</v>
+        <v>27926.0806</v>
       </c>
       <c r="G4" t="n">
-        <v>549502.8282593077</v>
+        <v>324292.5642</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="C5" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="D5" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="E5" t="n">
-        <v>76.5</v>
+        <v>77.2</v>
       </c>
       <c r="F5" t="n">
-        <v>7184.7085</v>
+        <v>15069.5952</v>
       </c>
       <c r="G5" t="n">
-        <v>556687.5367593076</v>
+        <v>339362.1593999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>77.09999999999999</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>2388.9999</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>559076.5366593077</v>
+        <v>339372.1593999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>77.2</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +642,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C7" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E7" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>38.9105</v>
+        <v>42020</v>
       </c>
       <c r="G7" t="n">
-        <v>559076.5366593077</v>
+        <v>297352.1593999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +684,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="C8" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="D8" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="E8" t="n">
-        <v>77.3</v>
+        <v>76.8</v>
       </c>
       <c r="F8" t="n">
-        <v>815</v>
+        <v>18000</v>
       </c>
       <c r="G8" t="n">
-        <v>559891.5366593077</v>
+        <v>279352.1593999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +726,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="C9" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="D9" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="E9" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="F9" t="n">
-        <v>6223.855</v>
+        <v>1172.8936</v>
       </c>
       <c r="G9" t="n">
-        <v>559891.5366593077</v>
+        <v>280525.053</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>76.8</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +768,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C10" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D10" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E10" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F10" t="n">
-        <v>1051.8669</v>
+        <v>122.3738</v>
       </c>
       <c r="G10" t="n">
-        <v>558839.6697593076</v>
+        <v>280525.053</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>77.2</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +810,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C11" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D11" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E11" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>6085.1071</v>
       </c>
       <c r="G11" t="n">
-        <v>558839.6697593076</v>
+        <v>280525.053</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>77.2</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +852,38 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C12" t="n">
-        <v>77.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>77.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F12" t="n">
-        <v>129.1989</v>
+        <v>185064.5670693467</v>
       </c>
       <c r="G12" t="n">
-        <v>558968.8686593076</v>
+        <v>465589.6200693466</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>77.2</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +894,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>4333.4349</v>
+        <v>7482.1359</v>
       </c>
       <c r="G13" t="n">
-        <v>563302.3035593076</v>
+        <v>458107.4841693466</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -859,7 +919,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +934,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="D14" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="E14" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>12.9366</v>
+        <v>22909.14</v>
       </c>
       <c r="G14" t="n">
-        <v>563302.3035593076</v>
+        <v>481016.6241693466</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -895,7 +959,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +974,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>77.5</v>
+        <v>77.2</v>
       </c>
       <c r="C15" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>77.5</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>13869.3585</v>
       </c>
       <c r="G15" t="n">
-        <v>563302.3035593076</v>
+        <v>494885.9826693466</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -931,7 +999,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1014,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>77.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="D16" t="n">
-        <v>77.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="E16" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>4938.3762</v>
+        <v>31898.9448</v>
       </c>
       <c r="G16" t="n">
-        <v>568240.6797593076</v>
+        <v>526784.9274693467</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,7 +1039,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1054,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="C17" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="D17" t="n">
-        <v>77.2</v>
+        <v>78.2</v>
       </c>
       <c r="E17" t="n">
-        <v>77.2</v>
+        <v>78</v>
       </c>
       <c r="F17" t="n">
-        <v>10404.3477</v>
+        <v>10204.1123</v>
       </c>
       <c r="G17" t="n">
-        <v>557836.3320593076</v>
+        <v>516580.8151693467</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1094,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>77.7</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>1014.9999</v>
+        <v>9975</v>
       </c>
       <c r="G18" t="n">
-        <v>558851.3319593077</v>
+        <v>506605.8151693467</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,7 +1119,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1134,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="C19" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="F19" t="n">
-        <v>14000.0744</v>
+        <v>6880.7466</v>
       </c>
       <c r="G19" t="n">
-        <v>544851.2575593076</v>
+        <v>513486.5617693467</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,7 +1159,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1174,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>77.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>48890.6855</v>
+        <v>2969.9653</v>
       </c>
       <c r="G20" t="n">
-        <v>544851.2575593076</v>
+        <v>513486.5617693467</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1111,7 +1199,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1214,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>77.59999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>41787.3711</v>
+        <v>2966.0782</v>
       </c>
       <c r="G21" t="n">
-        <v>544851.2575593076</v>
+        <v>510520.4835693467</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,7 +1239,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1254,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="C22" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="D22" t="n">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>77.5</v>
+        <v>77.7</v>
       </c>
       <c r="F22" t="n">
-        <v>12.9042</v>
+        <v>11692.4875</v>
       </c>
       <c r="G22" t="n">
-        <v>544838.3533593076</v>
+        <v>498827.9960693467</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1279,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1294,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="D23" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
-        <v>77.59999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>39174.1367</v>
+        <v>12966.0783</v>
       </c>
       <c r="G23" t="n">
-        <v>584012.4900593077</v>
+        <v>511794.0743693467</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1319,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1334,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>77.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>77.90000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>584022.4900593077</v>
+        <v>513794.0743693467</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1359,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,35 +1374,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>77.7</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>12.87</v>
+        <v>2490</v>
       </c>
       <c r="G25" t="n">
-        <v>584009.6200593077</v>
+        <v>513794.0743693467</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1302,28 +1412,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="C26" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D26" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E26" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F26" t="n">
-        <v>3059.2086</v>
+        <v>4625.8905</v>
       </c>
       <c r="G26" t="n">
-        <v>580950.4114593077</v>
+        <v>509168.1838693467</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1448,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="C27" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="D27" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="E27" t="n">
-        <v>77.7</v>
+        <v>78.2</v>
       </c>
       <c r="F27" t="n">
-        <v>5148.005148005148</v>
+        <v>4310</v>
       </c>
       <c r="G27" t="n">
-        <v>586098.4166073129</v>
+        <v>513478.1838693467</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1484,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>4665.7328</v>
+        <v>11572.0972</v>
       </c>
       <c r="G28" t="n">
-        <v>581432.6838073129</v>
+        <v>501906.0866693467</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1520,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>77.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>65362.806</v>
+        <v>386.597</v>
       </c>
       <c r="G29" t="n">
-        <v>516069.8778073129</v>
+        <v>501906.0866693467</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1556,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>77</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>1253.5349</v>
+        <v>6820</v>
       </c>
       <c r="G30" t="n">
-        <v>516069.8778073129</v>
+        <v>495086.0866693467</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1592,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>6393.8078</v>
+        <v>1448.0284</v>
       </c>
       <c r="G31" t="n">
-        <v>516069.8778073129</v>
+        <v>493638.0582693467</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1628,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C32" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D32" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E32" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F32" t="n">
-        <v>599.8528</v>
+        <v>10112.2279</v>
       </c>
       <c r="G32" t="n">
-        <v>516069.8778073129</v>
+        <v>503750.2861693467</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1664,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>1210.2581</v>
+        <v>0.0001</v>
       </c>
       <c r="G33" t="n">
-        <v>516069.8778073129</v>
+        <v>503750.2860693467</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1602,10 +1712,10 @@
         <v>77</v>
       </c>
       <c r="F34" t="n">
-        <v>13142</v>
+        <v>7329.8429</v>
       </c>
       <c r="G34" t="n">
-        <v>516069.8778073129</v>
+        <v>496420.4431693467</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1736,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="C35" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="D35" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="E35" t="n">
-        <v>77</v>
+        <v>76.7</v>
       </c>
       <c r="F35" t="n">
-        <v>16473</v>
+        <v>392.6984</v>
       </c>
       <c r="G35" t="n">
-        <v>516069.8778073129</v>
+        <v>496027.7447693467</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1674,10 +1784,10 @@
         <v>77</v>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>10188.2634</v>
       </c>
       <c r="G36" t="n">
-        <v>516069.8778073129</v>
+        <v>506216.0081693467</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1808,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="C37" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="D37" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="E37" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="F37" t="n">
-        <v>43380.9456</v>
+        <v>151.774</v>
       </c>
       <c r="G37" t="n">
-        <v>516069.8778073129</v>
+        <v>506367.7821693467</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1844,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>6088.474</v>
+        <v>1360</v>
       </c>
       <c r="G38" t="n">
-        <v>516069.8778073129</v>
+        <v>505007.7821693467</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1773,19 +1883,19 @@
         <v>76.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D39" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>76.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>11284.1704</v>
       </c>
       <c r="G39" t="n">
-        <v>514069.8778073129</v>
+        <v>493723.6117693467</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1916,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="C40" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="D40" t="n">
-        <v>76.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="E40" t="n">
-        <v>76.8</v>
+        <v>76.7</v>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>818.4224</v>
       </c>
       <c r="G40" t="n">
-        <v>509069.8778073129</v>
+        <v>492905.1893693467</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1952,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="C41" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="D41" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="E41" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="F41" t="n">
-        <v>3521.7</v>
+        <v>1975.05</v>
       </c>
       <c r="G41" t="n">
-        <v>509069.8778073129</v>
+        <v>490930.1393693467</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1988,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>77.2</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>543.4585</v>
+        <v>277.6764</v>
       </c>
       <c r="G42" t="n">
-        <v>509613.3363073129</v>
+        <v>490652.4629693467</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +2024,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="C43" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="D43" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="E43" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="F43" t="n">
-        <v>5149.3919</v>
+        <v>178.2802</v>
       </c>
       <c r="G43" t="n">
-        <v>514762.7282073129</v>
+        <v>490830.7431693467</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +2060,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C44" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="D44" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="E44" t="n">
-        <v>76.90000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="F44" t="n">
-        <v>238.566</v>
+        <v>39.8936</v>
       </c>
       <c r="G44" t="n">
-        <v>514524.1622073129</v>
+        <v>490830.7431693467</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2096,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C45" t="n">
         <v>76.90000000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>76.8</v>
       </c>
       <c r="D45" t="n">
         <v>76.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>76.8</v>
+        <v>76.5</v>
       </c>
       <c r="F45" t="n">
-        <v>35505.0817</v>
+        <v>11681.7692</v>
       </c>
       <c r="G45" t="n">
-        <v>479019.0805073129</v>
+        <v>502512.5123693467</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2132,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>77.5</v>
+        <v>76.7</v>
       </c>
       <c r="C46" t="n">
-        <v>77.5</v>
+        <v>76.7</v>
       </c>
       <c r="D46" t="n">
-        <v>77.5</v>
+        <v>76.7</v>
       </c>
       <c r="E46" t="n">
-        <v>77.5</v>
+        <v>76.7</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>781</v>
       </c>
       <c r="G46" t="n">
-        <v>479029.0805073129</v>
+        <v>501731.5123693467</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2168,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>10010</v>
+        <v>1574.386</v>
       </c>
       <c r="G47" t="n">
-        <v>489039.0805073129</v>
+        <v>500157.1263693467</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2204,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>77.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>77.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>78.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>77.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>39336.6646</v>
+        <v>691.6295</v>
       </c>
       <c r="G48" t="n">
-        <v>528375.7451073129</v>
+        <v>500157.1263693467</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,28 +2240,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="C49" t="n">
-        <v>78.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D49" t="n">
-        <v>78.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="E49" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1630</v>
+        <v>5228.7581</v>
       </c>
       <c r="G49" t="n">
-        <v>530005.7451073129</v>
+        <v>494928.3682693467</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2276,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>78.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C50" t="n">
-        <v>77.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>78.09999999999999</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>77.5</v>
+        <v>76.5</v>
       </c>
       <c r="F50" t="n">
-        <v>16870</v>
+        <v>2750</v>
       </c>
       <c r="G50" t="n">
-        <v>513135.7451073129</v>
+        <v>497678.3682693467</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2312,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>77.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>2090</v>
+        <v>556</v>
       </c>
       <c r="G51" t="n">
-        <v>511045.7451073129</v>
+        <v>497678.3682693467</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,22 +2348,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>77.3</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>44.8875</v>
+        <v>3660</v>
       </c>
       <c r="G52" t="n">
-        <v>511000.8576073129</v>
+        <v>501338.3682693467</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2384,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>8249.116400000001</v>
+        <v>1300.390117035111</v>
       </c>
       <c r="G53" t="n">
-        <v>519249.9740073129</v>
+        <v>501338.3682693467</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2420,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>77.40000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>130</v>
       </c>
       <c r="G54" t="n">
-        <v>519249.9740073129</v>
+        <v>501338.3682693467</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2456,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>395.4461</v>
+        <v>3660</v>
       </c>
       <c r="G55" t="n">
-        <v>519645.4201073129</v>
+        <v>501338.3682693467</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2492,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>1299</v>
       </c>
       <c r="G56" t="n">
-        <v>509645.4201073129</v>
+        <v>501338.3682693467</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2528,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>77.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>11649.3073</v>
+        <v>39305.9369</v>
       </c>
       <c r="G57" t="n">
-        <v>509645.4201073129</v>
+        <v>540644.3051693467</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2564,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="C58" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="D58" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="E58" t="n">
-        <v>77.3</v>
+        <v>76.5</v>
       </c>
       <c r="F58" t="n">
-        <v>2630</v>
+        <v>105.6297</v>
       </c>
       <c r="G58" t="n">
-        <v>509645.4201073129</v>
+        <v>540538.6754693467</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2600,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="C59" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="D59" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="E59" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="F59" t="n">
-        <v>3450</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="n">
-        <v>513095.4201073129</v>
+        <v>535538.6754693467</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2636,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="C60" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="D60" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="E60" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="F60" t="n">
-        <v>862.5</v>
+        <v>118.0571</v>
       </c>
       <c r="G60" t="n">
-        <v>513957.9201073129</v>
+        <v>535538.6754693467</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,31 +2672,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>77.7</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>600</v>
+        <v>16649.1209</v>
       </c>
       <c r="G61" t="n">
-        <v>513357.9201073129</v>
+        <v>552187.7963693467</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2598,22 +2712,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>43468.208</v>
+        <v>12500</v>
       </c>
       <c r="G62" t="n">
-        <v>469889.7121073129</v>
+        <v>552187.7963693467</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2736,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2754,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="C63" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D63" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="E63" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F63" t="n">
-        <v>1615.518</v>
+        <v>12110</v>
       </c>
       <c r="G63" t="n">
-        <v>471505.2301073129</v>
+        <v>564297.7963693467</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +2778,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2796,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="C64" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D64" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="E64" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F64" t="n">
-        <v>389.4155</v>
+        <v>14</v>
       </c>
       <c r="G64" t="n">
-        <v>471505.2301073129</v>
+        <v>564297.7963693467</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2832,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="C65" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D65" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="E65" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="F65" t="n">
-        <v>6739.9999</v>
+        <v>14</v>
       </c>
       <c r="G65" t="n">
-        <v>471505.2301073129</v>
+        <v>564297.7963693467</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2868,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="C66" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="D66" t="n">
-        <v>77.8</v>
+        <v>77</v>
       </c>
       <c r="E66" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="F66" t="n">
-        <v>2529.4939</v>
+        <v>88.5064</v>
       </c>
       <c r="G66" t="n">
-        <v>474034.7240073129</v>
+        <v>564297.7963693467</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2904,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="C67" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="D67" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="E67" t="n">
-        <v>77.8</v>
+        <v>76.7</v>
       </c>
       <c r="F67" t="n">
-        <v>233.5218</v>
+        <v>88.8526</v>
       </c>
       <c r="G67" t="n">
-        <v>474034.7240073129</v>
+        <v>564208.9437693467</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2940,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>77.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>10000</v>
+        <v>10340</v>
       </c>
       <c r="G68" t="n">
-        <v>464034.7240073129</v>
+        <v>553868.9437693467</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2976,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>77.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="C69" t="n">
-        <v>77.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="D69" t="n">
-        <v>77.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E69" t="n">
-        <v>77.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="F69" t="n">
-        <v>15937.1289</v>
+        <v>1945.893089960887</v>
       </c>
       <c r="G69" t="n">
-        <v>464034.7240073129</v>
+        <v>555814.8368593076</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +3012,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>77.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>397.6679</v>
       </c>
       <c r="G70" t="n">
-        <v>463984.7240073129</v>
+        <v>555417.1689593076</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,35 +3048,31 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="C71" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="D71" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="E71" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="F71" t="n">
-        <v>2564.720819230769</v>
+        <v>5914.3407</v>
       </c>
       <c r="G71" t="n">
-        <v>466549.4448265437</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="K71" t="n">
-        <v>77.5</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -2962,38 +3084,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="C72" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="D72" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="E72" t="n">
-        <v>78</v>
+        <v>76.3</v>
       </c>
       <c r="F72" t="n">
-        <v>264.7564</v>
+        <v>5113.4288</v>
       </c>
       <c r="G72" t="n">
-        <v>466549.4448265437</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K72" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>76.3</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3004,32 +3124,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C73" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D73" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E73" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F73" t="n">
-        <v>106</v>
+        <v>454.6106</v>
       </c>
       <c r="G73" t="n">
-        <v>466443.4448265437</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K73" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3046,32 +3168,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C74" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="D74" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E74" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="F74" t="n">
-        <v>476.0794</v>
+        <v>1620.4799</v>
       </c>
       <c r="G74" t="n">
-        <v>466443.4448265437</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,31 +3212,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="C75" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="D75" t="n">
-        <v>77.90000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E75" t="n">
-        <v>77.8</v>
+        <v>76.3</v>
       </c>
       <c r="F75" t="n">
-        <v>472.5392</v>
+        <v>507.3753</v>
       </c>
       <c r="G75" t="n">
-        <v>465970.9056265437</v>
+        <v>549502.8282593077</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>76.3</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3118,32 +3252,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="C76" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="D76" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="E76" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="F76" t="n">
-        <v>313.0605</v>
+        <v>7184.7085</v>
       </c>
       <c r="G76" t="n">
-        <v>465970.9056265437</v>
+        <v>556687.5367593076</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3154,32 +3296,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>311.4971</v>
+        <v>2388.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>465970.9056265437</v>
+        <v>559076.5366593077</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3190,28 +3340,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>77.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>155.4891</v>
+        <v>38.9105</v>
       </c>
       <c r="G78" t="n">
-        <v>465970.9056265437</v>
+        <v>559076.5366593077</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3226,28 +3376,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C79" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D79" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E79" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F79" t="n">
-        <v>443.9696</v>
+        <v>815</v>
       </c>
       <c r="G79" t="n">
-        <v>466414.8752265437</v>
+        <v>559891.5366593077</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3262,28 +3412,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="C80" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="D80" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="E80" t="n">
-        <v>77.90000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="F80" t="n">
-        <v>310.2651</v>
+        <v>6223.855</v>
       </c>
       <c r="G80" t="n">
-        <v>466414.8752265437</v>
+        <v>559891.5366593077</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3298,28 +3448,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>77.59999999999999</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>309.4895</v>
+        <v>1051.8669</v>
       </c>
       <c r="G81" t="n">
-        <v>466105.3857265437</v>
+        <v>558839.6697593076</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3334,28 +3484,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="n">
-        <v>466135.3857265437</v>
+        <v>558839.6697593076</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3370,28 +3520,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>78</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>77.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>34</v>
+        <v>129.1989</v>
       </c>
       <c r="G83" t="n">
-        <v>466135.3857265437</v>
+        <v>558968.8686593076</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3406,32 +3556,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C84" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D84" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E84" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F84" t="n">
-        <v>28370</v>
+        <v>4333.4349</v>
       </c>
       <c r="G84" t="n">
-        <v>437765.3857265437</v>
+        <v>563302.3035593076</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3442,32 +3598,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="C85" t="n">
         <v>77.5</v>
       </c>
       <c r="D85" t="n">
-        <v>77.59999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E85" t="n">
         <v>77.5</v>
       </c>
       <c r="F85" t="n">
-        <v>59976.79</v>
+        <v>12.9366</v>
       </c>
       <c r="G85" t="n">
-        <v>377788.5957265437</v>
+        <v>563302.3035593076</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3478,32 +3638,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="C86" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="D86" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="E86" t="n">
-        <v>77.7</v>
+        <v>77.5</v>
       </c>
       <c r="F86" t="n">
-        <v>295</v>
+        <v>3000</v>
       </c>
       <c r="G86" t="n">
-        <v>378083.5957265437</v>
+        <v>563302.3035593076</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3678,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>77.90000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>3430</v>
+        <v>4938.3762</v>
       </c>
       <c r="G87" t="n">
-        <v>381513.5957265437</v>
+        <v>568240.6797593076</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3539,7 +3703,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3550,32 +3718,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>77.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C88" t="n">
-        <v>78</v>
+        <v>77.2</v>
       </c>
       <c r="D88" t="n">
-        <v>78</v>
+        <v>77.2</v>
       </c>
       <c r="E88" t="n">
-        <v>77.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="F88" t="n">
-        <v>11120</v>
+        <v>10404.3477</v>
       </c>
       <c r="G88" t="n">
-        <v>392633.5957265437</v>
+        <v>557836.3320593076</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3758,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="C89" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="D89" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="E89" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="F89" t="n">
-        <v>5000</v>
+        <v>1014.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>392633.5957265437</v>
+        <v>558851.3319593077</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3611,7 +3783,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3622,32 +3798,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>78.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>78.09999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>6638.0033</v>
+        <v>14000.0744</v>
       </c>
       <c r="G90" t="n">
-        <v>399271.5990265437</v>
+        <v>544851.2575593076</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3658,32 +3838,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>78</v>
+        <v>77.7</v>
       </c>
       <c r="C91" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="E91" t="n">
-        <v>78</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>585.0897</v>
+        <v>48890.6855</v>
       </c>
       <c r="G91" t="n">
-        <v>398686.5093265437</v>
+        <v>544851.2575593076</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3694,32 +3878,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>77.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>14000</v>
+        <v>41787.3711</v>
       </c>
       <c r="G92" t="n">
-        <v>384686.5093265437</v>
+        <v>544851.2575593076</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3730,32 +3918,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="C93" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="D93" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="E93" t="n">
-        <v>77.3</v>
+        <v>77.5</v>
       </c>
       <c r="F93" t="n">
-        <v>348.6403</v>
+        <v>12.9042</v>
       </c>
       <c r="G93" t="n">
-        <v>384337.8690265436</v>
+        <v>544838.3533593076</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3766,32 +3958,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>15110.9999</v>
+        <v>39174.1367</v>
       </c>
       <c r="G94" t="n">
-        <v>369226.8691265436</v>
+        <v>584012.4900593077</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>77.5</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3802,39 +4000,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="C95" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>77</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>77</v>
+        <v>77.8</v>
       </c>
       <c r="F95" t="n">
-        <v>17499</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>369226.8691265436</v>
+        <v>584022.4900593077</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>77</v>
-      </c>
-      <c r="K95" t="n">
-        <v>77</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3842,34 +4038,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>77</v>
+        <v>77.7</v>
       </c>
       <c r="C96" t="n">
-        <v>77</v>
+        <v>77.7</v>
       </c>
       <c r="D96" t="n">
-        <v>77</v>
+        <v>77.7</v>
       </c>
       <c r="E96" t="n">
-        <v>77</v>
+        <v>77.7</v>
       </c>
       <c r="F96" t="n">
-        <v>622.3251</v>
+        <v>12.87</v>
       </c>
       <c r="G96" t="n">
-        <v>369226.8691265436</v>
+        <v>584009.6200593077</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -3886,40 +4080,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>77</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>1840</v>
+        <v>3059.2086</v>
       </c>
       <c r="G97" t="n">
-        <v>369226.8691265436</v>
+        <v>580950.4114593077</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>77</v>
-      </c>
-      <c r="K97" t="n">
-        <v>77</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3930,40 +4116,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="C98" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D98" t="n">
-        <v>76.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="E98" t="n">
-        <v>76.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="F98" t="n">
-        <v>30458.5006</v>
+        <v>5148.005148005148</v>
       </c>
       <c r="G98" t="n">
-        <v>338768.3685265436</v>
+        <v>586098.4166073129</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>77</v>
-      </c>
-      <c r="K98" t="n">
-        <v>77</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3974,40 +4152,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>8497.6427</v>
+        <v>4665.7328</v>
       </c>
       <c r="G99" t="n">
-        <v>347266.0112265436</v>
+        <v>581432.6838073129</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="K99" t="n">
-        <v>77</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4018,38 +4188,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="D100" t="n">
-        <v>76.8</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="F100" t="n">
-        <v>1151.472</v>
+        <v>65362.806</v>
       </c>
       <c r="G100" t="n">
-        <v>346114.5392265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>77</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4060,40 +4224,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="C101" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="D101" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="E101" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="F101" t="n">
-        <v>10229.8132</v>
+        <v>1253.5349</v>
       </c>
       <c r="G101" t="n">
-        <v>346114.5392265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K101" t="n">
-        <v>77</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4104,40 +4260,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="C102" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="D102" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="E102" t="n">
-        <v>76.7</v>
+        <v>77</v>
       </c>
       <c r="F102" t="n">
-        <v>3300.5924</v>
+        <v>6393.8078</v>
       </c>
       <c r="G102" t="n">
-        <v>342813.9468265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K102" t="n">
-        <v>77</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4148,40 +4296,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="C103" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="D103" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="E103" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="F103" t="n">
-        <v>2240</v>
+        <v>599.8528</v>
       </c>
       <c r="G103" t="n">
-        <v>345053.9468265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K103" t="n">
-        <v>77</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4192,22 +4332,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="C104" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="D104" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="E104" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="F104" t="n">
-        <v>5692.8504</v>
+        <v>1210.2581</v>
       </c>
       <c r="G104" t="n">
-        <v>339361.0964265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4216,16 +4356,12 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K104" t="n">
         <v>77</v>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4236,38 +4372,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="C105" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="D105" t="n">
-        <v>77.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="E105" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F105" t="n">
-        <v>5920</v>
+        <v>13142</v>
       </c>
       <c r="G105" t="n">
-        <v>345281.0964265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>76.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>77</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4280,38 +4414,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="C106" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="D106" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="E106" t="n">
-        <v>77.5</v>
+        <v>77</v>
       </c>
       <c r="F106" t="n">
-        <v>415.9999</v>
+        <v>16473</v>
       </c>
       <c r="G106" t="n">
-        <v>344865.0965265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>77.59999999999999</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>77</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4324,22 +4456,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="C107" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="D107" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="E107" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="F107" t="n">
-        <v>12210</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>357075.0965265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4348,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>77</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4366,22 +4492,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="C108" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="D108" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="E108" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="F108" t="n">
-        <v>596</v>
+        <v>43380.9456</v>
       </c>
       <c r="G108" t="n">
-        <v>357075.0965265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4390,14 +4516,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>77</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4528,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="C109" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="D109" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="E109" t="n">
-        <v>77.7</v>
+        <v>77</v>
       </c>
       <c r="F109" t="n">
-        <v>10751.1273</v>
+        <v>6088.474</v>
       </c>
       <c r="G109" t="n">
-        <v>357075.0965265436</v>
+        <v>516069.8778073129</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4432,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>77</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4564,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>78</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>78</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>78</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>78</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>2315.4508</v>
+        <v>2000</v>
       </c>
       <c r="G110" t="n">
-        <v>359390.5473265436</v>
+        <v>514069.8778073129</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4474,14 +4588,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>77</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4492,22 +4600,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>78.2</v>
+        <v>76.8</v>
       </c>
       <c r="D111" t="n">
-        <v>78.2</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>78.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F111" t="n">
-        <v>6330</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>365720.5473265436</v>
+        <v>509069.8778073129</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4516,14 +4624,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>77</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4534,40 +4636,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>77.7</v>
+        <v>76.8</v>
       </c>
       <c r="C112" t="n">
-        <v>77.7</v>
+        <v>76.8</v>
       </c>
       <c r="D112" t="n">
-        <v>77.7</v>
+        <v>76.8</v>
       </c>
       <c r="E112" t="n">
-        <v>77.7</v>
+        <v>76.8</v>
       </c>
       <c r="F112" t="n">
-        <v>199.5</v>
+        <v>3521.7</v>
       </c>
       <c r="G112" t="n">
-        <v>365521.0473265436</v>
+        <v>509069.8778073129</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>76.8</v>
+      </c>
       <c r="K112" t="n">
-        <v>77</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>76.8</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>1.004090909090909</v>
+        <v>1</v>
       </c>
       <c r="N112" t="inlineStr"/>
     </row>
@@ -4576,32 +4676,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>78.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="C113" t="n">
-        <v>78.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="D113" t="n">
-        <v>78.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="E113" t="n">
-        <v>78.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="F113" t="n">
-        <v>7010</v>
+        <v>543.4585</v>
       </c>
       <c r="G113" t="n">
-        <v>372531.0473265436</v>
+        <v>509613.3363073129</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4612,32 +4720,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>78.2</v>
+        <v>77.3</v>
       </c>
       <c r="C114" t="n">
-        <v>78.2</v>
+        <v>77.3</v>
       </c>
       <c r="D114" t="n">
-        <v>78.2</v>
+        <v>77.3</v>
       </c>
       <c r="E114" t="n">
-        <v>78.2</v>
+        <v>77.3</v>
       </c>
       <c r="F114" t="n">
-        <v>11160</v>
+        <v>5149.3919</v>
       </c>
       <c r="G114" t="n">
-        <v>383691.0473265436</v>
+        <v>514762.7282073129</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4648,22 +4764,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>105.2685</v>
+        <v>238.566</v>
       </c>
       <c r="G115" t="n">
-        <v>383585.7788265436</v>
+        <v>514524.1622073129</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4684,32 +4800,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>78.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="D116" t="n">
-        <v>78.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>78.09999999999999</v>
+        <v>76.8</v>
       </c>
       <c r="F116" t="n">
-        <v>105.5313</v>
+        <v>35505.0817</v>
       </c>
       <c r="G116" t="n">
-        <v>383585.7788265436</v>
+        <v>479019.0805073129</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4720,32 +4842,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="C117" t="n">
-        <v>78.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D117" t="n">
-        <v>78.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="E117" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="F117" t="n">
-        <v>2277.5639</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>383585.7788265436</v>
+        <v>479029.0805073129</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>76.8</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4884,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>78.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>78.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="D118" t="n">
-        <v>78.09999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="E118" t="n">
-        <v>78.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>167.708</v>
+        <v>10010</v>
       </c>
       <c r="G118" t="n">
-        <v>383585.7788265436</v>
+        <v>489039.0805073129</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4781,7 +4909,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4792,22 +4924,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="C119" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="D119" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="E119" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="F119" t="n">
-        <v>2039.4881</v>
+        <v>39336.6646</v>
       </c>
       <c r="G119" t="n">
-        <v>381546.2907265436</v>
+        <v>528375.7451073129</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4817,7 +4949,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4828,22 +4964,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="C120" t="n">
-        <v>77.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>77.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>77.5</v>
+        <v>77.8</v>
       </c>
       <c r="F120" t="n">
-        <v>5646.4959</v>
+        <v>1630</v>
       </c>
       <c r="G120" t="n">
-        <v>381546.2907265436</v>
+        <v>530005.7451073129</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4853,7 +4989,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4864,22 +5004,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>77.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C121" t="n">
         <v>77.5</v>
       </c>
       <c r="D121" t="n">
-        <v>77.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E121" t="n">
         <v>77.5</v>
       </c>
       <c r="F121" t="n">
-        <v>3011.0418</v>
+        <v>16870</v>
       </c>
       <c r="G121" t="n">
-        <v>381546.2907265436</v>
+        <v>513135.7451073129</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4889,7 +5029,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4900,32 +5044,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>77.09999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>35546.1712</v>
+        <v>2090</v>
       </c>
       <c r="G122" t="n">
-        <v>346000.1195265436</v>
+        <v>511045.7451073129</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4936,36 +5084,2734 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="C123" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D123" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="E123" t="n">
-        <v>77.09999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="F123" t="n">
-        <v>5418.3564</v>
+        <v>44.8875</v>
       </c>
       <c r="G123" t="n">
-        <v>346000.1195265436</v>
+        <v>511000.8576073129</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
       <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D124" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="E124" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8249.116400000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>519249.9740073129</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G125" t="n">
+        <v>519249.9740073129</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C126" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>395.4461</v>
+      </c>
+      <c r="G126" t="n">
+        <v>519645.4201073129</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C127" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G127" t="n">
+        <v>509645.4201073129</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11649.3073</v>
+      </c>
+      <c r="G128" t="n">
+        <v>509645.4201073129</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="C129" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2630</v>
+      </c>
+      <c r="G129" t="n">
+        <v>509645.4201073129</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3450</v>
+      </c>
+      <c r="G130" t="n">
+        <v>513095.4201073129</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>862.5</v>
+      </c>
+      <c r="G131" t="n">
+        <v>513957.9201073129</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>600</v>
+      </c>
+      <c r="G132" t="n">
+        <v>513357.9201073129</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>43468.208</v>
+      </c>
+      <c r="G133" t="n">
+        <v>469889.7121073129</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1615.518</v>
+      </c>
+      <c r="G134" t="n">
+        <v>471505.2301073129</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D135" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E135" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F135" t="n">
+        <v>389.4155</v>
+      </c>
+      <c r="G135" t="n">
+        <v>471505.2301073129</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D136" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E136" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6739.9999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>471505.2301073129</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2529.4939</v>
+      </c>
+      <c r="G137" t="n">
+        <v>474034.7240073129</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>233.5218</v>
+      </c>
+      <c r="G138" t="n">
+        <v>474034.7240073129</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>464034.7240073129</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15937.1289</v>
+      </c>
+      <c r="G140" t="n">
+        <v>464034.7240073129</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>50</v>
+      </c>
+      <c r="G141" t="n">
+        <v>463984.7240073129</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>78</v>
+      </c>
+      <c r="D142" t="n">
+        <v>78</v>
+      </c>
+      <c r="E142" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2564.720819230769</v>
+      </c>
+      <c r="G142" t="n">
+        <v>466549.4448265437</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>78</v>
+      </c>
+      <c r="C143" t="n">
+        <v>78</v>
+      </c>
+      <c r="D143" t="n">
+        <v>78</v>
+      </c>
+      <c r="E143" t="n">
+        <v>78</v>
+      </c>
+      <c r="F143" t="n">
+        <v>264.7564</v>
+      </c>
+      <c r="G143" t="n">
+        <v>466549.4448265437</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D144" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E144" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F144" t="n">
+        <v>106</v>
+      </c>
+      <c r="G144" t="n">
+        <v>466443.4448265437</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C145" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>476.0794</v>
+      </c>
+      <c r="G145" t="n">
+        <v>466443.4448265437</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E146" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>472.5392</v>
+      </c>
+      <c r="G146" t="n">
+        <v>465970.9056265437</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>313.0605</v>
+      </c>
+      <c r="G147" t="n">
+        <v>465970.9056265437</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>311.4971</v>
+      </c>
+      <c r="G148" t="n">
+        <v>465970.9056265437</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>155.4891</v>
+      </c>
+      <c r="G149" t="n">
+        <v>465970.9056265437</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C150" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D150" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>443.9696</v>
+      </c>
+      <c r="G150" t="n">
+        <v>466414.8752265437</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C151" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>310.2651</v>
+      </c>
+      <c r="G151" t="n">
+        <v>466414.8752265437</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>309.4895</v>
+      </c>
+      <c r="G152" t="n">
+        <v>466105.3857265437</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>78</v>
+      </c>
+      <c r="C153" t="n">
+        <v>78</v>
+      </c>
+      <c r="D153" t="n">
+        <v>78</v>
+      </c>
+      <c r="E153" t="n">
+        <v>78</v>
+      </c>
+      <c r="F153" t="n">
+        <v>30</v>
+      </c>
+      <c r="G153" t="n">
+        <v>466135.3857265437</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>78</v>
+      </c>
+      <c r="D154" t="n">
+        <v>78</v>
+      </c>
+      <c r="E154" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>34</v>
+      </c>
+      <c r="G154" t="n">
+        <v>466135.3857265437</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D155" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="F155" t="n">
+        <v>28370</v>
+      </c>
+      <c r="G155" t="n">
+        <v>437765.3857265437</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>59976.79</v>
+      </c>
+      <c r="G156" t="n">
+        <v>377788.5957265437</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C157" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D157" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F157" t="n">
+        <v>295</v>
+      </c>
+      <c r="G157" t="n">
+        <v>378083.5957265437</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C158" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="E158" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3430</v>
+      </c>
+      <c r="G158" t="n">
+        <v>381513.5957265437</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C159" t="n">
+        <v>78</v>
+      </c>
+      <c r="D159" t="n">
+        <v>78</v>
+      </c>
+      <c r="E159" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>11120</v>
+      </c>
+      <c r="G159" t="n">
+        <v>392633.5957265437</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>78</v>
+      </c>
+      <c r="C160" t="n">
+        <v>78</v>
+      </c>
+      <c r="D160" t="n">
+        <v>78</v>
+      </c>
+      <c r="E160" t="n">
+        <v>78</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>392633.5957265437</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>78</v>
+      </c>
+      <c r="C161" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E161" t="n">
+        <v>78</v>
+      </c>
+      <c r="F161" t="n">
+        <v>6638.0033</v>
+      </c>
+      <c r="G161" t="n">
+        <v>399271.5990265437</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>78</v>
+      </c>
+      <c r="C162" t="n">
+        <v>78</v>
+      </c>
+      <c r="D162" t="n">
+        <v>78</v>
+      </c>
+      <c r="E162" t="n">
+        <v>78</v>
+      </c>
+      <c r="F162" t="n">
+        <v>585.0897</v>
+      </c>
+      <c r="G162" t="n">
+        <v>398686.5093265437</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G163" t="n">
+        <v>384686.5093265437</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D164" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>348.6403</v>
+      </c>
+      <c r="G164" t="n">
+        <v>384337.8690265436</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>77</v>
+      </c>
+      <c r="C165" t="n">
+        <v>77</v>
+      </c>
+      <c r="D165" t="n">
+        <v>77</v>
+      </c>
+      <c r="E165" t="n">
+        <v>77</v>
+      </c>
+      <c r="F165" t="n">
+        <v>15110.9999</v>
+      </c>
+      <c r="G165" t="n">
+        <v>369226.8691265436</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>77</v>
+      </c>
+      <c r="C166" t="n">
+        <v>77</v>
+      </c>
+      <c r="D166" t="n">
+        <v>77</v>
+      </c>
+      <c r="E166" t="n">
+        <v>77</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17499</v>
+      </c>
+      <c r="G166" t="n">
+        <v>369226.8691265436</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>77</v>
+      </c>
+      <c r="K166" t="n">
+        <v>77</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>77</v>
+      </c>
+      <c r="C167" t="n">
+        <v>77</v>
+      </c>
+      <c r="D167" t="n">
+        <v>77</v>
+      </c>
+      <c r="E167" t="n">
+        <v>77</v>
+      </c>
+      <c r="F167" t="n">
+        <v>622.3251</v>
+      </c>
+      <c r="G167" t="n">
+        <v>369226.8691265436</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>77</v>
+      </c>
+      <c r="K167" t="n">
+        <v>77</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>77</v>
+      </c>
+      <c r="C168" t="n">
+        <v>77</v>
+      </c>
+      <c r="D168" t="n">
+        <v>77</v>
+      </c>
+      <c r="E168" t="n">
+        <v>77</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1840</v>
+      </c>
+      <c r="G168" t="n">
+        <v>369226.8691265436</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>77</v>
+      </c>
+      <c r="K168" t="n">
+        <v>77</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C169" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>30458.5006</v>
+      </c>
+      <c r="G169" t="n">
+        <v>338768.3685265436</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>77</v>
+      </c>
+      <c r="K169" t="n">
+        <v>77</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8497.6427</v>
+      </c>
+      <c r="G170" t="n">
+        <v>347266.0112265436</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="K170" t="n">
+        <v>77</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1151.472</v>
+      </c>
+      <c r="G171" t="n">
+        <v>346114.5392265436</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>77</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10229.8132</v>
+      </c>
+      <c r="G172" t="n">
+        <v>346114.5392265436</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K172" t="n">
+        <v>77</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3300.5924</v>
+      </c>
+      <c r="G173" t="n">
+        <v>342813.9468265436</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K173" t="n">
+        <v>77</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E174" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2240</v>
+      </c>
+      <c r="G174" t="n">
+        <v>345053.9468265436</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="K174" t="n">
+        <v>77</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="C175" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D175" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>5692.8504</v>
+      </c>
+      <c r="G175" t="n">
+        <v>339361.0964265436</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K175" t="n">
+        <v>77</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C176" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E176" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>5920</v>
+      </c>
+      <c r="G176" t="n">
+        <v>345281.0964265436</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="K176" t="n">
+        <v>77</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D177" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>415.9999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>344865.0965265436</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K177" t="n">
+        <v>77</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>12210</v>
+      </c>
+      <c r="G178" t="n">
+        <v>357075.0965265436</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>77</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>596</v>
+      </c>
+      <c r="G179" t="n">
+        <v>357075.0965265436</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>77</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C180" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E180" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10751.1273</v>
+      </c>
+      <c r="G180" t="n">
+        <v>357075.0965265436</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>77</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>78</v>
+      </c>
+      <c r="C181" t="n">
+        <v>78</v>
+      </c>
+      <c r="D181" t="n">
+        <v>78</v>
+      </c>
+      <c r="E181" t="n">
+        <v>78</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2315.4508</v>
+      </c>
+      <c r="G181" t="n">
+        <v>359390.5473265436</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>77</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D182" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E182" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6330</v>
+      </c>
+      <c r="G182" t="n">
+        <v>365720.5473265436</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>77</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1.010584415584416</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>365521.0473265436</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D184" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E184" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7010</v>
+      </c>
+      <c r="G184" t="n">
+        <v>372531.0473265436</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>11160</v>
+      </c>
+      <c r="G185" t="n">
+        <v>383691.0473265436</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D186" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E186" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>105.2685</v>
+      </c>
+      <c r="G186" t="n">
+        <v>383585.7788265436</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>105.5313</v>
+      </c>
+      <c r="G187" t="n">
+        <v>383585.7788265436</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>78</v>
+      </c>
+      <c r="C188" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>78</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2277.5639</v>
+      </c>
+      <c r="G188" t="n">
+        <v>383585.7788265436</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>167.708</v>
+      </c>
+      <c r="G189" t="n">
+        <v>383585.7788265436</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2039.4881</v>
+      </c>
+      <c r="G190" t="n">
+        <v>381546.2907265436</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C191" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5646.4959</v>
+      </c>
+      <c r="G191" t="n">
+        <v>381546.2907265436</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C192" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3011.0418</v>
+      </c>
+      <c r="G192" t="n">
+        <v>381546.2907265436</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D193" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F193" t="n">
+        <v>35546.1712</v>
+      </c>
+      <c r="G193" t="n">
+        <v>346000.1195265436</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="D194" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E194" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5418.3564</v>
+      </c>
+      <c r="G194" t="n">
+        <v>346000.1195265436</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,9 +486,15 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>324292.5642</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -552,9 +564,15 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>77.09999999999999</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -585,9 +603,15 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>77.2</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>297352.1593999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,15 @@
         <v>279352.1593999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +720,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +757,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +794,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +827,15 @@
         <v>465589.6200693466</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +864,15 @@
         <v>458107.4841693466</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +905,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +942,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +979,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1016,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1053,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1090,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1127,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1164,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1201,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,14 +1234,16 @@
         <v>511794.0743693467</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1408,7 +1500,7 @@
         <v>493638.0582693467</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1533,7 @@
         <v>503750.2861693467</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1566,7 @@
         <v>503750.2860693467</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1599,7 @@
         <v>496420.4431693467</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1632,7 @@
         <v>496027.7447693467</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1665,7 @@
         <v>506216.0081693467</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1698,7 @@
         <v>506367.7821693467</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1731,7 @@
         <v>505007.7821693467</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1764,7 @@
         <v>493723.6117693467</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1797,7 @@
         <v>492905.1893693467</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1830,7 @@
         <v>490930.1393693467</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1863,7 @@
         <v>490652.4629693467</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1896,7 @@
         <v>490830.7431693467</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1962,7 @@
         <v>502512.5123693467</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2398,7 +2490,7 @@
         <v>552187.7963693467</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2860,14 +2952,10 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>76.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2897,19 +2985,11 @@
         <v>556687.5367593076</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2938,19 +3018,11 @@
         <v>559076.5366593077</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3480,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3441,14 +3513,10 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>77.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3478,19 +3546,11 @@
         <v>544838.3533593076</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3519,19 +3579,11 @@
         <v>584012.4900593077</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3560,14 +3612,10 @@
         <v>584022.4900593077</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>77.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3600,14 +3648,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3681,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3675,7 +3711,7 @@
         <v>586098.4166073129</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3708,7 +3744,7 @@
         <v>581432.6838073129</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3741,7 +3777,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3774,7 +3810,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3807,7 +3843,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3840,7 +3876,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3873,7 +3909,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3906,7 +3942,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3939,7 +3975,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3972,7 +4008,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4005,7 +4041,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4038,7 +4074,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4071,7 +4107,7 @@
         <v>514069.8778073129</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4104,7 +4140,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4139,12 +4175,8 @@
       <c r="H112" t="n">
         <v>2</v>
       </c>
-      <c r="I112" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J112" t="n">
-        <v>76.8</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4176,17 +4208,9 @@
       <c r="H113" t="n">
         <v>2</v>
       </c>
-      <c r="I113" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J113" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4217,17 +4241,9 @@
       <c r="H114" t="n">
         <v>2</v>
       </c>
-      <c r="I114" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J114" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4258,12 +4274,8 @@
       <c r="H115" t="n">
         <v>2</v>
       </c>
-      <c r="I115" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>77.3</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4295,17 +4307,9 @@
       <c r="H116" t="n">
         <v>2</v>
       </c>
-      <c r="I116" t="n">
-        <v>76.90000000000001</v>
-      </c>
-      <c r="J116" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4334,17 +4338,11 @@
         <v>479029.0805073129</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4375,17 +4373,9 @@
       <c r="H118" t="n">
         <v>2</v>
       </c>
-      <c r="I118" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +4407,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4440,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4473,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4506,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4539,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4609,19 +4569,11 @@
         <v>519249.9740073129</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4650,19 +4602,11 @@
         <v>519249.9740073129</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4691,19 +4635,11 @@
         <v>519645.4201073129</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="J126" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4732,19 +4668,11 @@
         <v>509645.4201073129</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J127" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4773,19 +4701,11 @@
         <v>509645.4201073129</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4817,14 +4737,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4770,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +4803,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4931,17 +4833,11 @@
         <v>513357.9201073129</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4970,19 +4866,13 @@
         <v>469889.7121073129</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>77.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.9975873221216042</v>
+        <v>1</v>
       </c>
       <c r="M133" t="inlineStr"/>
     </row>
@@ -5009,7 +4899,7 @@
         <v>471505.2301073129</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5042,7 +4932,7 @@
         <v>471505.2301073129</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5075,7 +4965,7 @@
         <v>471505.2301073129</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5108,7 +4998,7 @@
         <v>474034.7240073129</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5141,7 +5031,7 @@
         <v>474034.7240073129</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5174,7 +5064,7 @@
         <v>464034.7240073129</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5207,7 +5097,7 @@
         <v>464034.7240073129</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5240,7 +5130,7 @@
         <v>463984.7240073129</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5273,7 +5163,7 @@
         <v>466549.4448265437</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5306,7 +5196,7 @@
         <v>466549.4448265437</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5339,7 +5229,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5372,7 +5262,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5405,7 +5295,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5438,7 +5328,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5471,7 +5361,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5504,7 +5394,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5537,7 +5427,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5636,7 +5526,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5669,7 +5559,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5702,7 +5592,7 @@
         <v>437765.3857265437</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5735,7 +5625,7 @@
         <v>377788.5957265437</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5768,7 +5658,7 @@
         <v>378083.5957265437</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5801,7 +5691,7 @@
         <v>381513.5957265437</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5834,7 +5724,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5867,7 +5757,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5900,7 +5790,7 @@
         <v>399271.5990265437</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5933,7 +5823,7 @@
         <v>398686.5093265437</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5966,7 +5856,7 @@
         <v>384686.5093265437</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5999,7 +5889,7 @@
         <v>384337.8690265436</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6032,7 +5922,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6065,7 +5955,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6098,7 +5988,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6131,7 +6021,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6164,7 +6054,7 @@
         <v>338768.3685265436</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6197,7 +6087,7 @@
         <v>347266.0112265436</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6230,7 +6120,7 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6263,7 +6153,7 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6296,7 +6186,7 @@
         <v>342813.9468265436</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6329,7 +6219,7 @@
         <v>345053.9468265436</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6362,7 +6252,7 @@
         <v>339361.0964265436</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6395,7 +6285,7 @@
         <v>345281.0964265436</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6428,7 +6318,7 @@
         <v>344865.0965265436</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6461,7 +6351,7 @@
         <v>357075.0965265436</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6494,7 +6384,7 @@
         <v>357075.0965265436</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6527,7 +6417,7 @@
         <v>357075.0965265436</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6560,7 +6450,7 @@
         <v>359390.5473265436</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6593,7 +6483,7 @@
         <v>365720.5473265436</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6626,7 +6516,7 @@
         <v>365521.0473265436</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6659,7 +6549,7 @@
         <v>372531.0473265436</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6692,7 +6582,7 @@
         <v>383691.0473265436</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6758,7 +6648,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6824,7 +6714,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6923,7 +6813,7 @@
         <v>381546.2907265436</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6956,7 +6846,7 @@
         <v>346000.1195265436</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6989,7 +6879,7 @@
         <v>346000.1195265436</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7000,6 +6890,6 @@
       <c r="M194" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>371203.8803</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>352218.6448</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>77.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>324292.5642</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>77.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>339362.1593999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>339372.1593999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>77.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>297352.1593999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>77.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -794,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1016,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1053,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,16 +1144,14 @@
         <v>511794.0743693467</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1500,7 +1408,7 @@
         <v>493638.0582693467</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1533,7 +1441,7 @@
         <v>503750.2861693467</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1566,7 +1474,7 @@
         <v>503750.2860693467</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1599,7 +1507,7 @@
         <v>496420.4431693467</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1632,7 +1540,7 @@
         <v>496027.7447693467</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1698,7 +1606,7 @@
         <v>506367.7821693467</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1896,7 +1804,7 @@
         <v>490830.7431693467</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1929,7 +1837,7 @@
         <v>490830.7431693467</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1962,7 +1870,7 @@
         <v>502512.5123693467</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2259,7 +2167,7 @@
         <v>501338.3682693467</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2490,7 +2398,7 @@
         <v>552187.7963693467</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2853,10 +2761,14 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2889,8 +2801,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2919,11 +2837,19 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2952,10 +2878,14 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>76.3</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2985,11 +2915,19 @@
         <v>556687.5367593076</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3021,8 +2959,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3183,7 +3127,7 @@
         <v>558839.6697593076</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3348,7 +3292,7 @@
         <v>568240.6797593076</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3381,7 +3325,7 @@
         <v>557836.3320593076</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3414,7 +3358,7 @@
         <v>558851.3319593077</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3447,7 +3391,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3480,7 +3424,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3513,7 +3457,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3546,7 +3490,7 @@
         <v>544838.3533593076</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3579,7 +3523,7 @@
         <v>584012.4900593077</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3711,7 +3655,7 @@
         <v>586098.4166073129</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3744,7 +3688,7 @@
         <v>581432.6838073129</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3942,7 +3886,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4272,7 +4216,7 @@
         <v>514524.1622073129</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4305,7 +4249,7 @@
         <v>479019.0805073129</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4338,7 +4282,7 @@
         <v>479029.0805073129</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4371,7 +4315,7 @@
         <v>489039.0805073129</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4470,7 +4414,7 @@
         <v>513135.7451073129</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4602,7 +4546,7 @@
         <v>519249.9740073129</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4635,7 +4579,7 @@
         <v>519645.4201073129</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4833,7 +4777,7 @@
         <v>513357.9201073129</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4899,7 +4843,7 @@
         <v>471505.2301073129</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4932,7 +4876,7 @@
         <v>471505.2301073129</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4965,7 +4909,7 @@
         <v>471505.2301073129</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4998,7 +4942,7 @@
         <v>474034.7240073129</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5031,7 +4975,7 @@
         <v>474034.7240073129</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5064,7 +5008,7 @@
         <v>464034.7240073129</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5097,7 +5041,7 @@
         <v>464034.7240073129</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5130,7 +5074,7 @@
         <v>463984.7240073129</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5163,7 +5107,7 @@
         <v>466549.4448265437</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5196,7 +5140,7 @@
         <v>466549.4448265437</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5229,7 +5173,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5262,7 +5206,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5295,7 +5239,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5328,7 +5272,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5361,7 +5305,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5394,7 +5338,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5427,7 +5371,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5559,7 +5503,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5592,7 +5536,7 @@
         <v>437765.3857265437</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5625,7 +5569,7 @@
         <v>377788.5957265437</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5658,7 +5602,7 @@
         <v>378083.5957265437</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5691,7 +5635,7 @@
         <v>381513.5957265437</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5724,7 +5668,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5757,7 +5701,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5790,7 +5734,7 @@
         <v>399271.5990265437</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5823,7 +5767,7 @@
         <v>398686.5093265437</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5856,7 +5800,7 @@
         <v>384686.5093265437</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5889,7 +5833,7 @@
         <v>384337.8690265436</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5922,7 +5866,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5955,7 +5899,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5988,7 +5932,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6021,7 +5965,7 @@
         <v>369226.8691265436</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6054,7 +5998,7 @@
         <v>338768.3685265436</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6087,7 +6031,7 @@
         <v>347266.0112265436</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6120,10 +6064,14 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>77.2</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6153,11 +6101,17 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6186,11 +6140,17 @@
         <v>342813.9468265436</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6219,7 +6179,7 @@
         <v>345053.9468265436</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6252,7 +6212,7 @@
         <v>339361.0964265436</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6285,7 +6245,7 @@
         <v>345281.0964265436</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6318,7 +6278,7 @@
         <v>344865.0965265436</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6351,7 +6311,7 @@
         <v>357075.0965265436</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6384,7 +6344,7 @@
         <v>357075.0965265436</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6417,7 +6377,7 @@
         <v>357075.0965265436</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6450,7 +6410,7 @@
         <v>359390.5473265436</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6483,7 +6443,7 @@
         <v>365720.5473265436</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6516,7 +6476,7 @@
         <v>365521.0473265436</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6549,7 +6509,7 @@
         <v>372531.0473265436</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6582,7 +6542,7 @@
         <v>383691.0473265436</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6648,7 +6608,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6714,7 +6674,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6813,7 +6773,7 @@
         <v>381546.2907265436</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6846,7 +6806,7 @@
         <v>346000.1195265436</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6879,7 +6839,7 @@
         <v>346000.1195265436</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6890,6 +6850,6 @@
       <c r="M194" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -484,7 +484,7 @@
         <v>352218.6448</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>324292.5642</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,10 +550,14 @@
         <v>339362.1593999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>77.09999999999999</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -583,11 +587,19 @@
         <v>339372.1593999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +628,19 @@
         <v>297352.1593999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +672,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +708,19 @@
         <v>280525.053</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,19 @@
         <v>280525.053</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +790,19 @@
         <v>280525.053</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +831,19 @@
         <v>465589.6200693466</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +875,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +914,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +953,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +992,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1031,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1070,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1109,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1148,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,13 +1184,19 @@
         <v>510520.4835693467</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.007970168612192</v>
       </c>
       <c r="M21" t="inlineStr"/>
     </row>
@@ -1111,7 +1223,7 @@
         <v>498827.9960693467</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1210,7 +1322,7 @@
         <v>513794.0743693467</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1355,7 @@
         <v>509168.1838693467</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1388,7 @@
         <v>513478.1838693467</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1573,7 +1685,7 @@
         <v>506216.0081693467</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1751,7 @@
         <v>505007.7821693467</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1784,7 @@
         <v>493723.6117693467</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1817,7 @@
         <v>492905.1893693467</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1850,7 @@
         <v>490930.1393693467</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1883,7 @@
         <v>490652.4629693467</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1949,7 @@
         <v>490830.7431693467</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2167,7 +2279,7 @@
         <v>501338.3682693467</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2761,14 +2873,10 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>76.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2801,14 +2909,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2837,19 +2939,11 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2972,10 @@
         <v>549502.8282593077</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>76.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2915,19 +3005,11 @@
         <v>556687.5367593076</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2959,14 +3041,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3127,7 +3203,7 @@
         <v>558839.6697593076</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3292,7 +3368,7 @@
         <v>568240.6797593076</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3325,7 +3401,7 @@
         <v>557836.3320593076</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3358,7 +3434,7 @@
         <v>558851.3319593077</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3391,7 +3467,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3424,7 +3500,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3457,7 +3533,7 @@
         <v>544851.2575593076</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3490,7 +3566,7 @@
         <v>544838.3533593076</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3523,7 +3599,7 @@
         <v>584012.4900593077</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3655,7 +3731,7 @@
         <v>586098.4166073129</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3721,7 +3797,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3754,7 +3830,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3787,7 +3863,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3820,7 +3896,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3853,7 +3929,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3919,7 +3995,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3952,7 +4028,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3985,7 +4061,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4018,7 +4094,7 @@
         <v>516069.8778073129</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4051,7 +4127,7 @@
         <v>514069.8778073129</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4084,7 +4160,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4117,7 +4193,7 @@
         <v>509069.8778073129</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4150,7 +4226,7 @@
         <v>509613.3363073129</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4183,7 +4259,7 @@
         <v>514762.7282073129</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4414,7 +4490,7 @@
         <v>513135.7451073129</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4546,7 +4622,7 @@
         <v>519249.9740073129</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4579,7 +4655,7 @@
         <v>519645.4201073129</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5008,7 +5084,7 @@
         <v>464034.7240073129</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5140,7 +5216,7 @@
         <v>466549.4448265437</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5173,7 +5249,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5206,7 +5282,7 @@
         <v>466443.4448265437</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5239,7 +5315,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5272,7 +5348,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5305,7 +5381,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5338,7 +5414,7 @@
         <v>465970.9056265437</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5371,7 +5447,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5404,7 +5480,7 @@
         <v>466414.8752265437</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5437,7 +5513,7 @@
         <v>466105.3857265437</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5470,7 +5546,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5503,7 +5579,7 @@
         <v>466135.3857265437</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5536,7 +5612,7 @@
         <v>437765.3857265437</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5569,7 +5645,7 @@
         <v>377788.5957265437</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5602,7 +5678,7 @@
         <v>378083.5957265437</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5668,7 +5744,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5701,7 +5777,7 @@
         <v>392633.5957265437</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5734,7 +5810,7 @@
         <v>399271.5990265437</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5767,7 +5843,7 @@
         <v>398686.5093265437</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5800,7 +5876,7 @@
         <v>384686.5093265437</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5833,7 +5909,7 @@
         <v>384337.8690265436</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6064,14 +6140,10 @@
         <v>346114.5392265436</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>77.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6104,14 +6176,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6143,14 +6209,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6410,7 +6470,7 @@
         <v>359390.5473265436</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6443,7 +6503,7 @@
         <v>365720.5473265436</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6476,7 +6536,7 @@
         <v>365521.0473265436</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6509,7 +6569,7 @@
         <v>372531.0473265436</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6542,7 +6602,7 @@
         <v>383691.0473265436</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6575,7 +6635,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6608,7 +6668,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6641,7 +6701,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6674,7 +6734,7 @@
         <v>383585.7788265436</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6707,7 +6767,7 @@
         <v>381546.2907265436</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest ENJ.xlsx
+++ b/BackTest/2019-11-02 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M194"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>427.8981</v>
       </c>
       <c r="G2" t="n">
-        <v>371203.8803</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>18985.2355</v>
       </c>
       <c r="G3" t="n">
-        <v>352218.6448</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>27926.0806</v>
       </c>
       <c r="G4" t="n">
-        <v>324292.5642</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,22 +533,15 @@
         <v>15069.5952</v>
       </c>
       <c r="G5" t="n">
-        <v>339362.1593999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -584,26 +563,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>339372.1593999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -625,26 +593,15 @@
         <v>42020</v>
       </c>
       <c r="G7" t="n">
-        <v>297352.1593999999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,24 +623,15 @@
         <v>18000</v>
       </c>
       <c r="G8" t="n">
-        <v>279352.1593999999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -705,26 +653,15 @@
         <v>1172.8936</v>
       </c>
       <c r="G9" t="n">
-        <v>280525.053</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,26 +683,15 @@
         <v>122.3738</v>
       </c>
       <c r="G10" t="n">
-        <v>280525.053</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,26 +713,15 @@
         <v>6085.1071</v>
       </c>
       <c r="G11" t="n">
-        <v>280525.053</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,26 +743,15 @@
         <v>185064.5670693467</v>
       </c>
       <c r="G12" t="n">
-        <v>465589.6200693466</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>77.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -869,24 +773,15 @@
         <v>7482.1359</v>
       </c>
       <c r="G13" t="n">
-        <v>458107.4841693466</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,24 +803,15 @@
         <v>22909.14</v>
       </c>
       <c r="G14" t="n">
-        <v>481016.6241693466</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -947,24 +833,15 @@
         <v>13869.3585</v>
       </c>
       <c r="G15" t="n">
-        <v>494885.9826693466</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -986,24 +863,15 @@
         <v>31898.9448</v>
       </c>
       <c r="G16" t="n">
-        <v>526784.9274693467</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1025,24 +893,15 @@
         <v>10204.1123</v>
       </c>
       <c r="G17" t="n">
-        <v>516580.8151693467</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1064,24 +923,15 @@
         <v>9975</v>
       </c>
       <c r="G18" t="n">
-        <v>506605.8151693467</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1103,24 +953,15 @@
         <v>6880.7466</v>
       </c>
       <c r="G19" t="n">
-        <v>513486.5617693467</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1142,24 +983,15 @@
         <v>2969.9653</v>
       </c>
       <c r="G20" t="n">
-        <v>513486.5617693467</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1181,24 +1013,15 @@
         <v>2966.0782</v>
       </c>
       <c r="G21" t="n">
-        <v>510520.4835693467</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1.007970168612192</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1220,18 +1043,15 @@
         <v>11692.4875</v>
       </c>
       <c r="G22" t="n">
-        <v>498827.9960693467</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1253,18 +1073,15 @@
         <v>12966.0783</v>
       </c>
       <c r="G23" t="n">
-        <v>511794.0743693467</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,18 +1103,15 @@
         <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>513794.0743693467</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1319,18 +1133,15 @@
         <v>2490</v>
       </c>
       <c r="G25" t="n">
-        <v>513794.0743693467</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,18 +1163,15 @@
         <v>4625.8905</v>
       </c>
       <c r="G26" t="n">
-        <v>509168.1838693467</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1385,18 +1193,15 @@
         <v>4310</v>
       </c>
       <c r="G27" t="n">
-        <v>513478.1838693467</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1418,18 +1223,15 @@
         <v>11572.0972</v>
       </c>
       <c r="G28" t="n">
-        <v>501906.0866693467</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1451,18 +1253,15 @@
         <v>386.597</v>
       </c>
       <c r="G29" t="n">
-        <v>501906.0866693467</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,18 +1283,15 @@
         <v>6820</v>
       </c>
       <c r="G30" t="n">
-        <v>495086.0866693467</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1517,18 +1313,15 @@
         <v>1448.0284</v>
       </c>
       <c r="G31" t="n">
-        <v>493638.0582693467</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1550,18 +1343,15 @@
         <v>10112.2279</v>
       </c>
       <c r="G32" t="n">
-        <v>503750.2861693467</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1583,18 +1373,15 @@
         <v>0.0001</v>
       </c>
       <c r="G33" t="n">
-        <v>503750.2860693467</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1616,18 +1403,15 @@
         <v>7329.8429</v>
       </c>
       <c r="G34" t="n">
-        <v>496420.4431693467</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1649,18 +1433,15 @@
         <v>392.6984</v>
       </c>
       <c r="G35" t="n">
-        <v>496027.7447693467</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,18 +1463,15 @@
         <v>10188.2634</v>
       </c>
       <c r="G36" t="n">
-        <v>506216.0081693467</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1715,18 +1493,15 @@
         <v>151.774</v>
       </c>
       <c r="G37" t="n">
-        <v>506367.7821693467</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1748,18 +1523,15 @@
         <v>1360</v>
       </c>
       <c r="G38" t="n">
-        <v>505007.7821693467</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1781,18 +1553,15 @@
         <v>11284.1704</v>
       </c>
       <c r="G39" t="n">
-        <v>493723.6117693467</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1814,18 +1583,15 @@
         <v>818.4224</v>
       </c>
       <c r="G40" t="n">
-        <v>492905.1893693467</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1847,18 +1613,15 @@
         <v>1975.05</v>
       </c>
       <c r="G41" t="n">
-        <v>490930.1393693467</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,18 +1643,15 @@
         <v>277.6764</v>
       </c>
       <c r="G42" t="n">
-        <v>490652.4629693467</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,18 +1673,15 @@
         <v>178.2802</v>
       </c>
       <c r="G43" t="n">
-        <v>490830.7431693467</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1946,18 +1703,15 @@
         <v>39.8936</v>
       </c>
       <c r="G44" t="n">
-        <v>490830.7431693467</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1979,18 +1733,15 @@
         <v>11681.7692</v>
       </c>
       <c r="G45" t="n">
-        <v>502512.5123693467</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2012,18 +1763,15 @@
         <v>781</v>
       </c>
       <c r="G46" t="n">
-        <v>501731.5123693467</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2045,18 +1793,15 @@
         <v>1574.386</v>
       </c>
       <c r="G47" t="n">
-        <v>500157.1263693467</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2078,18 +1823,15 @@
         <v>691.6295</v>
       </c>
       <c r="G48" t="n">
-        <v>500157.1263693467</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2111,18 +1853,15 @@
         <v>5228.7581</v>
       </c>
       <c r="G49" t="n">
-        <v>494928.3682693467</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2144,18 +1883,15 @@
         <v>2750</v>
       </c>
       <c r="G50" t="n">
-        <v>497678.3682693467</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,18 +1913,15 @@
         <v>556</v>
       </c>
       <c r="G51" t="n">
-        <v>497678.3682693467</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2210,18 +1943,15 @@
         <v>3660</v>
       </c>
       <c r="G52" t="n">
-        <v>501338.3682693467</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2243,18 +1973,15 @@
         <v>1300.390117035111</v>
       </c>
       <c r="G53" t="n">
-        <v>501338.3682693467</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2276,18 +2003,15 @@
         <v>130</v>
       </c>
       <c r="G54" t="n">
-        <v>501338.3682693467</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2309,18 +2033,15 @@
         <v>3660</v>
       </c>
       <c r="G55" t="n">
-        <v>501338.3682693467</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2342,18 +2063,15 @@
         <v>1299</v>
       </c>
       <c r="G56" t="n">
-        <v>501338.3682693467</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2375,18 +2093,15 @@
         <v>39305.9369</v>
       </c>
       <c r="G57" t="n">
-        <v>540644.3051693467</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,18 +2123,15 @@
         <v>105.6297</v>
       </c>
       <c r="G58" t="n">
-        <v>540538.6754693467</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2441,18 +2153,15 @@
         <v>5000</v>
       </c>
       <c r="G59" t="n">
-        <v>535538.6754693467</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2474,18 +2183,15 @@
         <v>118.0571</v>
       </c>
       <c r="G60" t="n">
-        <v>535538.6754693467</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2507,18 +2213,15 @@
         <v>16649.1209</v>
       </c>
       <c r="G61" t="n">
-        <v>552187.7963693467</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2540,18 +2243,15 @@
         <v>12500</v>
       </c>
       <c r="G62" t="n">
-        <v>552187.7963693467</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2573,18 +2273,15 @@
         <v>12110</v>
       </c>
       <c r="G63" t="n">
-        <v>564297.7963693467</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2606,18 +2303,15 @@
         <v>14</v>
       </c>
       <c r="G64" t="n">
-        <v>564297.7963693467</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2639,18 +2333,15 @@
         <v>14</v>
       </c>
       <c r="G65" t="n">
-        <v>564297.7963693467</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2672,18 +2363,15 @@
         <v>88.5064</v>
       </c>
       <c r="G66" t="n">
-        <v>564297.7963693467</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2705,18 +2393,15 @@
         <v>88.8526</v>
       </c>
       <c r="G67" t="n">
-        <v>564208.9437693467</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2738,18 +2423,21 @@
         <v>10340</v>
       </c>
       <c r="G68" t="n">
-        <v>553868.9437693467</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2771,18 +2459,21 @@
         <v>1945.893089960887</v>
       </c>
       <c r="G69" t="n">
-        <v>555814.8368593076</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2804,18 +2495,21 @@
         <v>397.6679</v>
       </c>
       <c r="G70" t="n">
-        <v>555417.1689593076</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2837,18 +2531,21 @@
         <v>5914.3407</v>
       </c>
       <c r="G71" t="n">
-        <v>549502.8282593077</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2870,18 +2567,21 @@
         <v>5113.4288</v>
       </c>
       <c r="G72" t="n">
-        <v>549502.8282593077</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2903,18 +2603,21 @@
         <v>454.6106</v>
       </c>
       <c r="G73" t="n">
-        <v>549502.8282593077</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2936,18 +2639,21 @@
         <v>1620.4799</v>
       </c>
       <c r="G74" t="n">
-        <v>549502.8282593077</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2969,18 +2675,21 @@
         <v>507.3753</v>
       </c>
       <c r="G75" t="n">
-        <v>549502.8282593077</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3002,18 +2711,21 @@
         <v>7184.7085</v>
       </c>
       <c r="G76" t="n">
-        <v>556687.5367593076</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3035,18 +2747,21 @@
         <v>2388.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>559076.5366593077</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>76.5</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3068,18 +2783,21 @@
         <v>38.9105</v>
       </c>
       <c r="G78" t="n">
-        <v>559076.5366593077</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3101,18 +2819,21 @@
         <v>815</v>
       </c>
       <c r="G79" t="n">
-        <v>559891.5366593077</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3134,18 +2855,21 @@
         <v>6223.855</v>
       </c>
       <c r="G80" t="n">
-        <v>559891.5366593077</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3167,18 +2891,21 @@
         <v>1051.8669</v>
       </c>
       <c r="G81" t="n">
-        <v>558839.6697593076</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3200,18 +2927,21 @@
         <v>10000</v>
       </c>
       <c r="G82" t="n">
-        <v>558839.6697593076</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3233,18 +2963,21 @@
         <v>129.1989</v>
       </c>
       <c r="G83" t="n">
-        <v>558968.8686593076</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3266,18 +2999,21 @@
         <v>4333.4349</v>
       </c>
       <c r="G84" t="n">
-        <v>563302.3035593076</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3299,18 +3035,21 @@
         <v>12.9366</v>
       </c>
       <c r="G85" t="n">
-        <v>563302.3035593076</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3332,18 +3071,19 @@
         <v>3000</v>
       </c>
       <c r="G86" t="n">
-        <v>563302.3035593076</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3365,18 +3105,19 @@
         <v>4938.3762</v>
       </c>
       <c r="G87" t="n">
-        <v>568240.6797593076</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3398,18 +3139,19 @@
         <v>10404.3477</v>
       </c>
       <c r="G88" t="n">
-        <v>557836.3320593076</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3431,18 +3173,19 @@
         <v>1014.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>558851.3319593077</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3464,18 +3207,19 @@
         <v>14000.0744</v>
       </c>
       <c r="G90" t="n">
-        <v>544851.2575593076</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3497,18 +3241,19 @@
         <v>48890.6855</v>
       </c>
       <c r="G91" t="n">
-        <v>544851.2575593076</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3530,18 +3275,19 @@
         <v>41787.3711</v>
       </c>
       <c r="G92" t="n">
-        <v>544851.2575593076</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3563,18 +3309,19 @@
         <v>12.9042</v>
       </c>
       <c r="G93" t="n">
-        <v>544838.3533593076</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3596,18 +3343,19 @@
         <v>39174.1367</v>
       </c>
       <c r="G94" t="n">
-        <v>584012.4900593077</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3629,18 +3377,19 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>584022.4900593077</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3662,18 +3411,19 @@
         <v>12.87</v>
       </c>
       <c r="G96" t="n">
-        <v>584009.6200593077</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3695,18 +3445,19 @@
         <v>3059.2086</v>
       </c>
       <c r="G97" t="n">
-        <v>580950.4114593077</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3728,18 +3479,19 @@
         <v>5148.005148005148</v>
       </c>
       <c r="G98" t="n">
-        <v>586098.4166073129</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3761,18 +3513,19 @@
         <v>4665.7328</v>
       </c>
       <c r="G99" t="n">
-        <v>581432.6838073129</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3794,18 +3547,19 @@
         <v>65362.806</v>
       </c>
       <c r="G100" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3827,18 +3581,19 @@
         <v>1253.5349</v>
       </c>
       <c r="G101" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3860,18 +3615,19 @@
         <v>6393.8078</v>
       </c>
       <c r="G102" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3893,18 +3649,19 @@
         <v>599.8528</v>
       </c>
       <c r="G103" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3926,18 +3683,19 @@
         <v>1210.2581</v>
       </c>
       <c r="G104" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3959,18 +3717,19 @@
         <v>13142</v>
       </c>
       <c r="G105" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3992,18 +3751,19 @@
         <v>16473</v>
       </c>
       <c r="G106" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4025,18 +3785,19 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4058,18 +3819,21 @@
         <v>43380.9456</v>
       </c>
       <c r="G108" t="n">
-        <v>516069.8778073129</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4091,18 +3855,19 @@
         <v>6088.474</v>
       </c>
       <c r="G109" t="n">
-        <v>516069.8778073129</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4124,18 +3889,21 @@
         <v>2000</v>
       </c>
       <c r="G110" t="n">
-        <v>514069.8778073129</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4157,18 +3925,21 @@
         <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>509069.8778073129</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4190,18 +3961,21 @@
         <v>3521.7</v>
       </c>
       <c r="G112" t="n">
-        <v>509069.8778073129</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4223,18 +3997,21 @@
         <v>543.4585</v>
       </c>
       <c r="G113" t="n">
-        <v>509613.3363073129</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4256,18 +4033,21 @@
         <v>5149.3919</v>
       </c>
       <c r="G114" t="n">
-        <v>514762.7282073129</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4289,18 +4069,21 @@
         <v>238.566</v>
       </c>
       <c r="G115" t="n">
-        <v>514524.1622073129</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>77.3</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4322,18 +4105,21 @@
         <v>35505.0817</v>
       </c>
       <c r="G116" t="n">
-        <v>479019.0805073129</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4355,18 +4141,21 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>479029.0805073129</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4388,18 +4177,21 @@
         <v>10010</v>
       </c>
       <c r="G118" t="n">
-        <v>489039.0805073129</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4421,18 +4213,21 @@
         <v>39336.6646</v>
       </c>
       <c r="G119" t="n">
-        <v>528375.7451073129</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>77.7</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4454,18 +4249,19 @@
         <v>1630</v>
       </c>
       <c r="G120" t="n">
-        <v>530005.7451073129</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4487,18 +4283,19 @@
         <v>16870</v>
       </c>
       <c r="G121" t="n">
-        <v>513135.7451073129</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4520,18 +4317,19 @@
         <v>2090</v>
       </c>
       <c r="G122" t="n">
-        <v>511045.7451073129</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4553,18 +4351,19 @@
         <v>44.8875</v>
       </c>
       <c r="G123" t="n">
-        <v>511000.8576073129</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4586,18 +4385,19 @@
         <v>8249.116400000001</v>
       </c>
       <c r="G124" t="n">
-        <v>519249.9740073129</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4619,18 +4419,19 @@
         <v>5000</v>
       </c>
       <c r="G125" t="n">
-        <v>519249.9740073129</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4652,18 +4453,19 @@
         <v>395.4461</v>
       </c>
       <c r="G126" t="n">
-        <v>519645.4201073129</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4685,18 +4487,19 @@
         <v>10000</v>
       </c>
       <c r="G127" t="n">
-        <v>509645.4201073129</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4718,18 +4521,19 @@
         <v>11649.3073</v>
       </c>
       <c r="G128" t="n">
-        <v>509645.4201073129</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4751,18 +4555,19 @@
         <v>2630</v>
       </c>
       <c r="G129" t="n">
-        <v>509645.4201073129</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4784,18 +4589,19 @@
         <v>3450</v>
       </c>
       <c r="G130" t="n">
-        <v>513095.4201073129</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4817,18 +4623,19 @@
         <v>862.5</v>
       </c>
       <c r="G131" t="n">
-        <v>513957.9201073129</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4850,18 +4657,19 @@
         <v>600</v>
       </c>
       <c r="G132" t="n">
-        <v>513357.9201073129</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4883,18 +4691,19 @@
         <v>43468.208</v>
       </c>
       <c r="G133" t="n">
-        <v>469889.7121073129</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4916,18 +4725,19 @@
         <v>1615.518</v>
       </c>
       <c r="G134" t="n">
-        <v>471505.2301073129</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4949,18 +4759,19 @@
         <v>389.4155</v>
       </c>
       <c r="G135" t="n">
-        <v>471505.2301073129</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4982,18 +4793,19 @@
         <v>6739.9999</v>
       </c>
       <c r="G136" t="n">
-        <v>471505.2301073129</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5015,18 +4827,19 @@
         <v>2529.4939</v>
       </c>
       <c r="G137" t="n">
-        <v>474034.7240073129</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5048,18 +4861,19 @@
         <v>233.5218</v>
       </c>
       <c r="G138" t="n">
-        <v>474034.7240073129</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5081,18 +4895,19 @@
         <v>10000</v>
       </c>
       <c r="G139" t="n">
-        <v>464034.7240073129</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5114,18 +4929,19 @@
         <v>15937.1289</v>
       </c>
       <c r="G140" t="n">
-        <v>464034.7240073129</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5147,18 +4963,19 @@
         <v>50</v>
       </c>
       <c r="G141" t="n">
-        <v>463984.7240073129</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5180,18 +4997,19 @@
         <v>2564.720819230769</v>
       </c>
       <c r="G142" t="n">
-        <v>466549.4448265437</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5213,18 +5031,19 @@
         <v>264.7564</v>
       </c>
       <c r="G143" t="n">
-        <v>466549.4448265437</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5246,18 +5065,19 @@
         <v>106</v>
       </c>
       <c r="G144" t="n">
-        <v>466443.4448265437</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5279,18 +5099,19 @@
         <v>476.0794</v>
       </c>
       <c r="G145" t="n">
-        <v>466443.4448265437</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5312,18 +5133,19 @@
         <v>472.5392</v>
       </c>
       <c r="G146" t="n">
-        <v>465970.9056265437</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5345,18 +5167,19 @@
         <v>313.0605</v>
       </c>
       <c r="G147" t="n">
-        <v>465970.9056265437</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5378,18 +5201,19 @@
         <v>311.4971</v>
       </c>
       <c r="G148" t="n">
-        <v>465970.9056265437</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5411,18 +5235,19 @@
         <v>155.4891</v>
       </c>
       <c r="G149" t="n">
-        <v>465970.9056265437</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5444,18 +5269,19 @@
         <v>443.9696</v>
       </c>
       <c r="G150" t="n">
-        <v>466414.8752265437</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5477,18 +5303,19 @@
         <v>310.2651</v>
       </c>
       <c r="G151" t="n">
-        <v>466414.8752265437</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5510,18 +5337,19 @@
         <v>309.4895</v>
       </c>
       <c r="G152" t="n">
-        <v>466105.3857265437</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5543,18 +5371,19 @@
         <v>30</v>
       </c>
       <c r="G153" t="n">
-        <v>466135.3857265437</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5576,18 +5405,19 @@
         <v>34</v>
       </c>
       <c r="G154" t="n">
-        <v>466135.3857265437</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5609,18 +5439,19 @@
         <v>28370</v>
       </c>
       <c r="G155" t="n">
-        <v>437765.3857265437</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5642,18 +5473,19 @@
         <v>59976.79</v>
       </c>
       <c r="G156" t="n">
-        <v>377788.5957265437</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5675,18 +5507,19 @@
         <v>295</v>
       </c>
       <c r="G157" t="n">
-        <v>378083.5957265437</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5708,18 +5541,19 @@
         <v>3430</v>
       </c>
       <c r="G158" t="n">
-        <v>381513.5957265437</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5741,18 +5575,19 @@
         <v>11120</v>
       </c>
       <c r="G159" t="n">
-        <v>392633.5957265437</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5774,18 +5609,19 @@
         <v>5000</v>
       </c>
       <c r="G160" t="n">
-        <v>392633.5957265437</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5807,18 +5643,19 @@
         <v>6638.0033</v>
       </c>
       <c r="G161" t="n">
-        <v>399271.5990265437</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5840,18 +5677,19 @@
         <v>585.0897</v>
       </c>
       <c r="G162" t="n">
-        <v>398686.5093265437</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5873,18 +5711,19 @@
         <v>14000</v>
       </c>
       <c r="G163" t="n">
-        <v>384686.5093265437</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5906,18 +5745,19 @@
         <v>348.6403</v>
       </c>
       <c r="G164" t="n">
-        <v>384337.8690265436</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5939,18 +5779,19 @@
         <v>15110.9999</v>
       </c>
       <c r="G165" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5972,18 +5813,19 @@
         <v>17499</v>
       </c>
       <c r="G166" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6005,18 +5847,19 @@
         <v>622.3251</v>
       </c>
       <c r="G167" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6038,18 +5881,19 @@
         <v>1840</v>
       </c>
       <c r="G168" t="n">
-        <v>369226.8691265436</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6071,18 +5915,19 @@
         <v>30458.5006</v>
       </c>
       <c r="G169" t="n">
-        <v>338768.3685265436</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6104,18 +5949,19 @@
         <v>8497.6427</v>
       </c>
       <c r="G170" t="n">
-        <v>347266.0112265436</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6137,18 +5983,19 @@
         <v>1151.472</v>
       </c>
       <c r="G171" t="n">
-        <v>346114.5392265436</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6170,18 +6017,19 @@
         <v>10229.8132</v>
       </c>
       <c r="G172" t="n">
-        <v>346114.5392265436</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6203,18 +6051,21 @@
         <v>3300.5924</v>
       </c>
       <c r="G173" t="n">
-        <v>342813.9468265436</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6236,18 +6087,21 @@
         <v>2240</v>
       </c>
       <c r="G174" t="n">
-        <v>345053.9468265436</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>76.7</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6269,18 +6123,21 @@
         <v>5692.8504</v>
       </c>
       <c r="G175" t="n">
-        <v>339361.0964265436</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6302,18 +6159,21 @@
         <v>5920</v>
       </c>
       <c r="G176" t="n">
-        <v>345281.0964265436</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6335,18 +6195,21 @@
         <v>415.9999</v>
       </c>
       <c r="G177" t="n">
-        <v>344865.0965265436</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6368,18 +6231,19 @@
         <v>12210</v>
       </c>
       <c r="G178" t="n">
-        <v>357075.0965265436</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6401,18 +6265,19 @@
         <v>596</v>
       </c>
       <c r="G179" t="n">
-        <v>357075.0965265436</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6434,18 +6299,19 @@
         <v>10751.1273</v>
       </c>
       <c r="G180" t="n">
-        <v>357075.0965265436</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6467,18 +6333,19 @@
         <v>2315.4508</v>
       </c>
       <c r="G181" t="n">
-        <v>359390.5473265436</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6500,18 +6367,19 @@
         <v>6330</v>
       </c>
       <c r="G182" t="n">
-        <v>365720.5473265436</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6533,18 +6401,19 @@
         <v>199.5</v>
       </c>
       <c r="G183" t="n">
-        <v>365521.0473265436</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6566,18 +6435,19 @@
         <v>7010</v>
       </c>
       <c r="G184" t="n">
-        <v>372531.0473265436</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6599,18 +6469,19 @@
         <v>11160</v>
       </c>
       <c r="G185" t="n">
-        <v>383691.0473265436</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6632,18 +6503,19 @@
         <v>105.2685</v>
       </c>
       <c r="G186" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6665,18 +6537,19 @@
         <v>105.5313</v>
       </c>
       <c r="G187" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6698,18 +6571,19 @@
         <v>2277.5639</v>
       </c>
       <c r="G188" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6731,18 +6605,19 @@
         <v>167.708</v>
       </c>
       <c r="G189" t="n">
-        <v>383585.7788265436</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6764,18 +6639,19 @@
         <v>2039.4881</v>
       </c>
       <c r="G190" t="n">
-        <v>381546.2907265436</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6797,18 +6673,19 @@
         <v>5646.4959</v>
       </c>
       <c r="G191" t="n">
-        <v>381546.2907265436</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6830,18 +6707,19 @@
         <v>3011.0418</v>
       </c>
       <c r="G192" t="n">
-        <v>381546.2907265436</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6863,18 +6741,19 @@
         <v>35546.1712</v>
       </c>
       <c r="G193" t="n">
-        <v>346000.1195265436</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6896,18 +6775,19 @@
         <v>5418.3564</v>
       </c>
       <c r="G194" t="n">
-        <v>346000.1195265436</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
